--- a/Juan/Reviciones/Plantilla_Lista_de_Tareas_de_la_revisión_2.xlsx
+++ b/Juan/Reviciones/Plantilla_Lista_de_Tareas_de_la_revisión_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juuan\Desktop\6to semstre\Des. Software\Reviciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juuan\Desktop\6to semstre\Des. Software\Proyecto\EmpenioFacil\Juan\Reviciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9D9B9D-F373-4D7E-96E5-E2BED83C3FA1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830DDA25-A190-44CD-9E55-DCA799D4B8E0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -755,10 +755,10 @@
   <dimension ref="B1:BA38"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="Q32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O37" sqref="O37"/>
+      <selection pane="bottomRight" activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,84 +1537,86 @@
         <v>105</v>
       </c>
       <c r="P10" s="9"/>
-      <c r="Q10" s="7"/>
+      <c r="Q10" s="7">
+        <v>5</v>
+      </c>
       <c r="R10" s="7">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="S10" s="9"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7">
         <f t="shared" si="3"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="V10" s="9"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7">
         <f t="shared" si="4"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Y10" s="9"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7">
         <f t="shared" si="5"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AB10" s="9"/>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7">
         <f t="shared" si="6"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AE10" s="9"/>
       <c r="AF10" s="7"/>
       <c r="AG10" s="7">
         <f t="shared" si="7"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AH10" s="9"/>
       <c r="AI10" s="7"/>
       <c r="AJ10" s="7">
         <f t="shared" si="8"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AK10" s="9"/>
       <c r="AL10" s="7"/>
       <c r="AM10" s="7">
         <f>AJ10-AL10</f>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AN10" s="9"/>
       <c r="AO10" s="7"/>
       <c r="AP10" s="7">
         <f>AM10-AO10</f>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AQ10" s="9"/>
       <c r="AR10" s="7"/>
       <c r="AS10" s="7">
         <f t="shared" si="11"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AT10" s="9"/>
       <c r="AU10" s="7"/>
       <c r="AV10" s="7">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AW10" s="9"/>
       <c r="AX10" s="7"/>
       <c r="AY10" s="7">
         <f t="shared" si="13"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AZ10" s="10">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA10" s="10">
         <f t="shared" si="15"/>
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -2223,84 +2225,86 @@
         <v>105</v>
       </c>
       <c r="P16" s="9"/>
-      <c r="Q16" s="7"/>
+      <c r="Q16" s="7">
+        <v>5</v>
+      </c>
       <c r="R16" s="7">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="S16" s="9"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7">
         <f t="shared" si="3"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="V16" s="9"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7">
         <f t="shared" si="4"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Y16" s="9"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7">
         <f t="shared" si="5"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AB16" s="9"/>
       <c r="AC16" s="7"/>
       <c r="AD16" s="7">
         <f t="shared" si="6"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AE16" s="9"/>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7">
         <f t="shared" si="7"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AH16" s="9"/>
       <c r="AI16" s="7"/>
       <c r="AJ16" s="7">
         <f t="shared" si="8"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AK16" s="9"/>
       <c r="AL16" s="7"/>
       <c r="AM16" s="7">
         <f t="shared" si="9"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AN16" s="9"/>
       <c r="AO16" s="7"/>
       <c r="AP16" s="7">
         <f t="shared" si="10"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AQ16" s="9"/>
       <c r="AR16" s="7"/>
       <c r="AS16" s="7">
         <f t="shared" si="11"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AT16" s="9"/>
       <c r="AU16" s="7"/>
       <c r="AV16" s="7">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AW16" s="9"/>
       <c r="AX16" s="7"/>
       <c r="AY16" s="7">
         <f t="shared" si="13"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AZ16" s="10">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA16" s="10">
         <f t="shared" si="15"/>
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -2909,84 +2913,86 @@
         <v>105</v>
       </c>
       <c r="P22" s="9"/>
-      <c r="Q22" s="7"/>
+      <c r="Q22" s="7">
+        <v>5</v>
+      </c>
       <c r="R22" s="7">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="S22" s="9"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7">
         <f t="shared" si="3"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="V22" s="9"/>
       <c r="W22" s="7"/>
       <c r="X22" s="7">
         <f t="shared" si="4"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Y22" s="9"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7">
         <f t="shared" si="5"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AB22" s="9"/>
       <c r="AC22" s="7"/>
       <c r="AD22" s="7">
         <f t="shared" si="6"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AE22" s="9"/>
       <c r="AF22" s="7"/>
       <c r="AG22" s="7">
         <f t="shared" si="7"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AH22" s="9"/>
       <c r="AI22" s="7"/>
       <c r="AJ22" s="7">
         <f t="shared" si="8"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AK22" s="9"/>
       <c r="AL22" s="7"/>
       <c r="AM22" s="7">
         <f t="shared" si="9"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AN22" s="9"/>
       <c r="AO22" s="7"/>
       <c r="AP22" s="7">
         <f t="shared" si="10"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AQ22" s="9"/>
       <c r="AR22" s="7"/>
       <c r="AS22" s="7">
         <f t="shared" si="11"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AT22" s="9"/>
       <c r="AU22" s="7"/>
       <c r="AV22" s="7">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AW22" s="9"/>
       <c r="AX22" s="7"/>
       <c r="AY22" s="7">
         <f t="shared" si="13"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AZ22" s="10">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA22" s="10">
         <f>G22-AZ22</f>
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -3367,84 +3373,86 @@
         <v>105</v>
       </c>
       <c r="P26" s="9"/>
-      <c r="Q26" s="7"/>
+      <c r="Q26" s="7">
+        <v>5</v>
+      </c>
       <c r="R26" s="7">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="S26" s="9"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7">
         <f t="shared" si="3"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="V26" s="9"/>
       <c r="W26" s="7"/>
       <c r="X26" s="7">
         <f t="shared" si="4"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Y26" s="9"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7">
         <f t="shared" si="5"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AB26" s="9"/>
       <c r="AC26" s="7"/>
       <c r="AD26" s="7">
         <f t="shared" si="6"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AE26" s="9"/>
       <c r="AF26" s="7"/>
       <c r="AG26" s="7">
         <f t="shared" si="7"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AH26" s="9"/>
       <c r="AI26" s="7"/>
       <c r="AJ26" s="7">
         <f t="shared" si="8"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AK26" s="9"/>
       <c r="AL26" s="7"/>
       <c r="AM26" s="7">
         <f t="shared" si="9"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AN26" s="9"/>
       <c r="AO26" s="7"/>
       <c r="AP26" s="7">
         <f t="shared" si="10"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AQ26" s="9"/>
       <c r="AR26" s="7"/>
       <c r="AS26" s="7">
         <f t="shared" si="11"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AT26" s="9"/>
       <c r="AU26" s="7"/>
       <c r="AV26" s="7">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AW26" s="9"/>
       <c r="AX26" s="7"/>
       <c r="AY26" s="7">
         <f t="shared" si="13"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AZ26" s="10">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA26" s="10">
         <f t="shared" si="17"/>
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -3825,84 +3833,86 @@
         <v>110</v>
       </c>
       <c r="P30" s="9"/>
-      <c r="Q30" s="7"/>
+      <c r="Q30" s="7">
+        <v>5</v>
+      </c>
       <c r="R30" s="7">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="S30" s="9"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7">
         <f t="shared" si="3"/>
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="V30" s="9"/>
       <c r="W30" s="7"/>
       <c r="X30" s="7">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="Y30" s="9"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AB30" s="9"/>
       <c r="AC30" s="7"/>
       <c r="AD30" s="7">
         <f t="shared" si="6"/>
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AE30" s="9"/>
       <c r="AF30" s="7"/>
       <c r="AG30" s="7">
         <f t="shared" si="7"/>
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AH30" s="9"/>
       <c r="AI30" s="7"/>
       <c r="AJ30" s="7">
         <f t="shared" si="8"/>
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AK30" s="9"/>
       <c r="AL30" s="7"/>
       <c r="AM30" s="7">
         <f t="shared" si="9"/>
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AN30" s="9"/>
       <c r="AO30" s="7"/>
       <c r="AP30" s="7">
         <f t="shared" si="10"/>
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AQ30" s="9"/>
       <c r="AR30" s="7"/>
       <c r="AS30" s="7">
         <f t="shared" si="11"/>
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AT30" s="9"/>
       <c r="AU30" s="7"/>
       <c r="AV30" s="7">
         <f t="shared" si="12"/>
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AW30" s="9"/>
       <c r="AX30" s="7"/>
       <c r="AY30" s="7">
         <f t="shared" si="13"/>
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AZ30" s="10">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA30" s="10">
         <f t="shared" si="17"/>
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -4511,84 +4521,86 @@
         <v>95</v>
       </c>
       <c r="P36" s="9"/>
-      <c r="Q36" s="7"/>
+      <c r="Q36" s="7">
+        <v>5</v>
+      </c>
       <c r="R36" s="7">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="S36" s="9"/>
       <c r="T36" s="7"/>
       <c r="U36" s="7">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="V36" s="9"/>
       <c r="W36" s="7"/>
       <c r="X36" s="7">
         <f t="shared" si="4"/>
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Y36" s="9"/>
       <c r="Z36" s="7"/>
       <c r="AA36" s="7">
         <f t="shared" si="5"/>
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB36" s="9"/>
       <c r="AC36" s="7"/>
       <c r="AD36" s="7">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AE36" s="9"/>
       <c r="AF36" s="7"/>
       <c r="AG36" s="7">
         <f t="shared" si="7"/>
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AH36" s="9"/>
       <c r="AI36" s="7"/>
       <c r="AJ36" s="7">
         <f t="shared" si="8"/>
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AK36" s="9"/>
       <c r="AL36" s="7"/>
       <c r="AM36" s="7">
         <f t="shared" si="9"/>
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN36" s="9"/>
       <c r="AO36" s="7"/>
       <c r="AP36" s="7">
         <f t="shared" si="10"/>
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AQ36" s="9"/>
       <c r="AR36" s="7"/>
       <c r="AS36" s="7">
         <f t="shared" si="11"/>
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AT36" s="9"/>
       <c r="AU36" s="7"/>
       <c r="AV36" s="7">
         <f t="shared" si="12"/>
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AW36" s="9"/>
       <c r="AX36" s="7"/>
       <c r="AY36" s="7">
         <f t="shared" si="13"/>
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AZ36" s="10">
         <f t="shared" si="14"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="BA36" s="10">
         <f t="shared" si="17"/>
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -4813,6 +4825,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -4824,11 +4841,6 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Juan/Reviciones/Plantilla_Lista_de_Tareas_de_la_revisión_2.xlsx
+++ b/Juan/Reviciones/Plantilla_Lista_de_Tareas_de_la_revisión_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juuan\Desktop\6to semstre\Des. Software\Proyecto\EmpenioFacil\Juan\Reviciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830DDA25-A190-44CD-9E55-DCA799D4B8E0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC54298-6D90-4283-A058-B2B2C6A8CA78}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -271,7 +271,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +297,14 @@
     <font>
       <b/>
       <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -412,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -447,6 +455,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,10 +766,10 @@
   <dimension ref="B1:BA38"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="Q32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="AG6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q36" sqref="Q36"/>
+      <selection pane="bottomRight" activeCell="AR8" sqref="AR8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1198,78 +1209,82 @@
         <v>180</v>
       </c>
       <c r="S7" s="9"/>
-      <c r="T7" s="7"/>
+      <c r="T7" s="7">
+        <v>5</v>
+      </c>
       <c r="U7" s="7">
         <f t="shared" si="3"/>
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="V7" s="9"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="Y7" s="9"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AB7" s="9"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7">
         <f t="shared" si="6"/>
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AE7" s="9"/>
       <c r="AF7" s="7"/>
       <c r="AG7" s="7">
         <f t="shared" si="7"/>
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AH7" s="9"/>
       <c r="AI7" s="7"/>
       <c r="AJ7" s="7">
         <f t="shared" si="8"/>
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AK7" s="9"/>
       <c r="AL7" s="7"/>
       <c r="AM7" s="7">
         <f t="shared" si="9"/>
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AN7" s="9"/>
       <c r="AO7" s="7"/>
       <c r="AP7" s="7">
         <f t="shared" si="10"/>
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AQ7" s="9"/>
-      <c r="AR7" s="7"/>
+      <c r="AR7" s="7">
+        <v>20</v>
+      </c>
       <c r="AS7" s="7">
         <f t="shared" si="11"/>
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="AT7" s="9"/>
       <c r="AU7" s="7"/>
       <c r="AV7" s="7">
         <f t="shared" si="12"/>
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="AW7" s="9"/>
       <c r="AX7" s="7"/>
       <c r="AY7" s="7">
         <f t="shared" si="13"/>
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="AZ7" s="10">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BA7" s="10">
         <f t="shared" si="15"/>
-        <v>180</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -1361,7 +1376,7 @@
         <v>160</v>
       </c>
       <c r="AQ8" s="9"/>
-      <c r="AR8" s="7"/>
+      <c r="AR8" s="15"/>
       <c r="AS8" s="7">
         <f t="shared" si="11"/>
         <v>160</v>
@@ -1428,78 +1443,80 @@
         <v>150</v>
       </c>
       <c r="S9" s="9"/>
-      <c r="T9" s="7"/>
+      <c r="T9" s="7">
+        <v>5</v>
+      </c>
       <c r="U9" s="7">
         <f t="shared" si="3"/>
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="V9" s="9"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7">
         <f>U9-W9</f>
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="Y9" s="9"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7">
         <f>X9-Z9</f>
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AB9" s="9"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7">
         <f t="shared" si="6"/>
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AE9" s="9"/>
       <c r="AF9" s="7"/>
       <c r="AG9" s="7">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AH9" s="9"/>
       <c r="AI9" s="7"/>
       <c r="AJ9" s="7">
         <f t="shared" si="8"/>
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AK9" s="9"/>
       <c r="AL9" s="7"/>
       <c r="AM9" s="7">
         <f t="shared" si="9"/>
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AN9" s="9"/>
       <c r="AO9" s="7"/>
       <c r="AP9" s="7">
         <f t="shared" si="10"/>
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AQ9" s="9"/>
       <c r="AR9" s="7"/>
       <c r="AS9" s="7">
         <f t="shared" si="11"/>
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AT9" s="9"/>
       <c r="AU9" s="7"/>
       <c r="AV9" s="7">
         <f t="shared" si="12"/>
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AW9" s="9"/>
       <c r="AX9" s="7"/>
       <c r="AY9" s="7">
         <f t="shared" si="13"/>
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AZ9" s="10">
         <f t="shared" si="14"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="BA9" s="10">
         <f t="shared" si="15"/>
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="2:53" ht="45" x14ac:dyDescent="0.25">

--- a/Juan/Reviciones/Plantilla_Lista_de_Tareas_de_la_revisión_2.xlsx
+++ b/Juan/Reviciones/Plantilla_Lista_de_Tareas_de_la_revisión_2.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juuan\Desktop\6to semstre\Des. Software\Proyecto\EmpenioFacil\Juan\Reviciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC54298-6D90-4283-A058-B2B2C6A8CA78}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F365849D-2B7C-4728-AEE1-8E8C250EFB22}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="589" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="1" r:id="rId1"/>
     <sheet name="Instructivo" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Casos de Uso'!$A$1:$BB$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Casos de Uso'!$A$1:$BB$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Casos de Uso'!$B:$F,'Casos de Uso'!$1:$5</definedName>
   </definedNames>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="79">
   <si>
     <t>Columna</t>
   </si>
@@ -265,6 +265,12 @@
   </si>
   <si>
     <t>Pruebas unitarias</t>
+  </si>
+  <si>
+    <t>Validar datos y criterios</t>
+  </si>
+  <si>
+    <t>Validar datos</t>
   </si>
 </sst>
 </file>
@@ -420,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -450,6 +456,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -457,7 +466,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -763,13 +772,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:BA38"/>
+  <dimension ref="B1:BA40"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="AG6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AR8" sqref="AR8"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,84 +853,84 @@
       </c>
     </row>
     <row r="4" spans="2:53" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="14"/>
+      <c r="I4" s="15"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="14"/>
+      <c r="L4" s="15"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="14"/>
+      <c r="O4" s="15"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="13" t="s">
+      <c r="Q4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="14"/>
+      <c r="R4" s="15"/>
       <c r="S4" s="8"/>
-      <c r="T4" s="13" t="s">
+      <c r="T4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="14"/>
+      <c r="U4" s="15"/>
       <c r="V4" s="8"/>
-      <c r="W4" s="13" t="s">
+      <c r="W4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="X4" s="14"/>
+      <c r="X4" s="15"/>
       <c r="Y4" s="8"/>
-      <c r="Z4" s="13" t="s">
+      <c r="Z4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="AA4" s="14"/>
+      <c r="AA4" s="15"/>
       <c r="AB4" s="8"/>
-      <c r="AC4" s="13" t="s">
+      <c r="AC4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AD4" s="14"/>
+      <c r="AD4" s="15"/>
       <c r="AE4" s="8"/>
-      <c r="AF4" s="13" t="s">
+      <c r="AF4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AG4" s="14"/>
+      <c r="AG4" s="15"/>
       <c r="AH4" s="8"/>
-      <c r="AI4" s="13" t="s">
+      <c r="AI4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AJ4" s="14"/>
+      <c r="AJ4" s="15"/>
       <c r="AK4" s="8"/>
-      <c r="AL4" s="13" t="s">
+      <c r="AL4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AM4" s="14"/>
+      <c r="AM4" s="15"/>
       <c r="AN4" s="8"/>
-      <c r="AO4" s="13" t="s">
+      <c r="AO4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="AP4" s="14"/>
+      <c r="AP4" s="15"/>
       <c r="AQ4" s="8"/>
-      <c r="AR4" s="13" t="s">
+      <c r="AR4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AS4" s="14"/>
+      <c r="AS4" s="15"/>
       <c r="AT4" s="8"/>
-      <c r="AU4" s="13" t="s">
+      <c r="AU4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AV4" s="14"/>
+      <c r="AV4" s="15"/>
       <c r="AW4" s="8"/>
-      <c r="AX4" s="13" t="s">
+      <c r="AX4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AY4" s="14"/>
-      <c r="AZ4" s="13" t="s">
+      <c r="AY4" s="15"/>
+      <c r="AZ4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="BA4" s="14"/>
+      <c r="BA4" s="15"/>
     </row>
     <row r="5" spans="2:53" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
@@ -1080,93 +1089,93 @@
       <c r="J6" s="9"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7">
-        <f t="shared" ref="L6:L38" si="0">I6-K6</f>
+        <f t="shared" ref="L6:L40" si="0">I6-K6</f>
         <v>180</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7">
-        <f t="shared" ref="O6:O38" si="1">L6-N6</f>
+        <f t="shared" ref="O6:O40" si="1">L6-N6</f>
         <v>180</v>
       </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7">
-        <f t="shared" ref="R6:R38" si="2">O6-Q6</f>
+        <f t="shared" ref="R6:R40" si="2">O6-Q6</f>
         <v>180</v>
       </c>
       <c r="S6" s="9"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7">
-        <f t="shared" ref="U6:U38" si="3">R6-T6</f>
+        <f t="shared" ref="U6:U40" si="3">R6-T6</f>
         <v>180</v>
       </c>
       <c r="V6" s="9"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7">
-        <f t="shared" ref="X6:X38" si="4">U6-W6</f>
+        <f t="shared" ref="X6:X40" si="4">U6-W6</f>
         <v>180</v>
       </c>
       <c r="Y6" s="9"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7">
-        <f t="shared" ref="AA6:AA38" si="5">X6-Z6</f>
+        <f t="shared" ref="AA6:AA40" si="5">X6-Z6</f>
         <v>180</v>
       </c>
       <c r="AB6" s="9"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7">
-        <f t="shared" ref="AD6:AD38" si="6">AA6-AC6</f>
+        <f t="shared" ref="AD6:AD40" si="6">AA6-AC6</f>
         <v>180</v>
       </c>
       <c r="AE6" s="9"/>
       <c r="AF6" s="7"/>
       <c r="AG6" s="7">
-        <f t="shared" ref="AG6:AG38" si="7">AD6-AF6</f>
+        <f t="shared" ref="AG6:AG40" si="7">AD6-AF6</f>
         <v>180</v>
       </c>
       <c r="AH6" s="9"/>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7">
-        <f t="shared" ref="AJ6:AJ38" si="8">AG6-AI6</f>
+        <f t="shared" ref="AJ6:AJ40" si="8">AG6-AI6</f>
         <v>180</v>
       </c>
       <c r="AK6" s="9"/>
       <c r="AL6" s="7"/>
       <c r="AM6" s="7">
-        <f t="shared" ref="AM6:AM38" si="9">AJ6-AL6</f>
+        <f t="shared" ref="AM6:AM40" si="9">AJ6-AL6</f>
         <v>180</v>
       </c>
       <c r="AN6" s="9"/>
       <c r="AO6" s="7"/>
       <c r="AP6" s="7">
-        <f t="shared" ref="AP6:AP38" si="10">AM6-AO6</f>
+        <f t="shared" ref="AP6:AP40" si="10">AM6-AO6</f>
         <v>180</v>
       </c>
       <c r="AQ6" s="9"/>
       <c r="AR6" s="7"/>
       <c r="AS6" s="7">
-        <f t="shared" ref="AS6:AS38" si="11">AP6-AR6</f>
+        <f t="shared" ref="AS6:AS40" si="11">AP6-AR6</f>
         <v>180</v>
       </c>
       <c r="AT6" s="9"/>
       <c r="AU6" s="7"/>
       <c r="AV6" s="7">
-        <f t="shared" ref="AV6:AV38" si="12">AS6-AU6</f>
+        <f t="shared" ref="AV6:AV40" si="12">AS6-AU6</f>
         <v>180</v>
       </c>
       <c r="AW6" s="9"/>
       <c r="AX6" s="7"/>
       <c r="AY6" s="7">
-        <f t="shared" ref="AY6:AY38" si="13">AV6-AX6</f>
+        <f t="shared" ref="AY6:AY40" si="13">AV6-AX6</f>
         <v>180</v>
       </c>
       <c r="AZ6" s="10">
-        <f t="shared" ref="AZ6:AZ37" si="14">H6+K6+N6+Q6+T6+W6+Z6+AC6+AF6+AI6+AL6+AO6+AR6+AU6+AX6</f>
+        <f t="shared" ref="AZ6:AZ39" si="14">H6+K6+N6+Q6+T6+W6+Z6+AC6+AF6+AI6+AL6+AO6+AR6+AU6+AX6</f>
         <v>0</v>
       </c>
       <c r="BA6" s="10">
-        <f t="shared" ref="BA6:BA21" si="15">G6-AZ6</f>
+        <f t="shared" ref="BA6:BA22" si="15">G6-AZ6</f>
         <v>180</v>
       </c>
     </row>
@@ -1187,7 +1196,7 @@
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7">
-        <f t="shared" ref="I7:I38" si="16">G7-H7</f>
+        <f t="shared" ref="I7:I40" si="16">G7-H7</f>
         <v>180</v>
       </c>
       <c r="J7" s="9"/>
@@ -1260,31 +1269,31 @@
       </c>
       <c r="AQ7" s="9"/>
       <c r="AR7" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AS7" s="7">
         <f t="shared" si="11"/>
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AT7" s="9"/>
       <c r="AU7" s="7"/>
       <c r="AV7" s="7">
         <f t="shared" si="12"/>
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AW7" s="9"/>
       <c r="AX7" s="7"/>
       <c r="AY7" s="7">
         <f t="shared" si="13"/>
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AZ7" s="10">
         <f t="shared" si="14"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="BA7" s="10">
         <f t="shared" si="15"/>
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -1376,7 +1385,7 @@
         <v>160</v>
       </c>
       <c r="AQ8" s="9"/>
-      <c r="AR8" s="15"/>
+      <c r="AR8" s="13"/>
       <c r="AS8" s="7">
         <f t="shared" si="11"/>
         <v>160</v>
@@ -2068,30 +2077,32 @@
         <v>90</v>
       </c>
       <c r="AQ14" s="9"/>
-      <c r="AR14" s="7"/>
+      <c r="AR14" s="7">
+        <v>15</v>
+      </c>
       <c r="AS14" s="7">
         <f t="shared" si="11"/>
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AT14" s="9"/>
       <c r="AU14" s="7"/>
       <c r="AV14" s="7">
         <f t="shared" si="12"/>
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AW14" s="9"/>
       <c r="AX14" s="7"/>
       <c r="AY14" s="7">
         <f t="shared" si="13"/>
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AZ14" s="10">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BA14" s="10">
         <f t="shared" si="15"/>
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -2643,30 +2654,32 @@
         <v>50</v>
       </c>
       <c r="AQ19" s="9"/>
-      <c r="AR19" s="7"/>
+      <c r="AR19" s="7">
+        <v>10</v>
+      </c>
       <c r="AS19" s="7">
         <f t="shared" si="11"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AT19" s="9"/>
       <c r="AU19" s="7"/>
       <c r="AV19" s="7">
         <f t="shared" si="12"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AW19" s="9"/>
       <c r="AX19" s="7"/>
       <c r="AY19" s="7">
         <f t="shared" si="13"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AZ19" s="10">
         <f t="shared" si="14"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BA19" s="10">
         <f t="shared" si="15"/>
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -2795,96 +2808,96 @@
         <v>45</v>
       </c>
       <c r="G21" s="4">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7">
         <f t="shared" si="16"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="P21" s="9"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="S21" s="9"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="V21" s="9"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="Y21" s="9"/>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AB21" s="9"/>
       <c r="AC21" s="7"/>
       <c r="AD21" s="7">
         <f t="shared" si="6"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AE21" s="9"/>
       <c r="AF21" s="7"/>
       <c r="AG21" s="7">
         <f t="shared" si="7"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AH21" s="9"/>
       <c r="AI21" s="7"/>
       <c r="AJ21" s="7">
         <f t="shared" si="8"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AK21" s="9"/>
       <c r="AL21" s="7"/>
       <c r="AM21" s="7">
         <f t="shared" si="9"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AN21" s="9"/>
       <c r="AO21" s="7"/>
       <c r="AP21" s="7">
         <f t="shared" si="10"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AQ21" s="9"/>
       <c r="AR21" s="7"/>
       <c r="AS21" s="7">
         <f t="shared" si="11"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AT21" s="9"/>
       <c r="AU21" s="7"/>
       <c r="AV21" s="7">
         <f t="shared" si="12"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AW21" s="9"/>
       <c r="AX21" s="7"/>
       <c r="AY21" s="7">
         <f t="shared" si="13"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AZ21" s="10">
         <f t="shared" si="14"/>
@@ -2892,248 +2905,244 @@
       </c>
       <c r="BA21" s="10">
         <f t="shared" si="15"/>
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G22" s="4">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7">
         <f t="shared" si="16"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="J22" s="9"/>
-      <c r="K22" s="7">
-        <v>15</v>
-      </c>
+      <c r="K22" s="7"/>
       <c r="L22" s="7">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="P22" s="9"/>
-      <c r="Q22" s="7">
-        <v>5</v>
-      </c>
+      <c r="Q22" s="7"/>
       <c r="R22" s="7">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="S22" s="9"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="V22" s="9"/>
       <c r="W22" s="7"/>
       <c r="X22" s="7">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Y22" s="9"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AB22" s="9"/>
       <c r="AC22" s="7"/>
       <c r="AD22" s="7">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AE22" s="9"/>
       <c r="AF22" s="7"/>
       <c r="AG22" s="7">
         <f t="shared" si="7"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AH22" s="9"/>
       <c r="AI22" s="7"/>
       <c r="AJ22" s="7">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK22" s="9"/>
       <c r="AL22" s="7"/>
       <c r="AM22" s="7">
         <f t="shared" si="9"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AN22" s="9"/>
       <c r="AO22" s="7"/>
       <c r="AP22" s="7">
         <f t="shared" si="10"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AQ22" s="9"/>
       <c r="AR22" s="7"/>
       <c r="AS22" s="7">
         <f t="shared" si="11"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AT22" s="9"/>
       <c r="AU22" s="7"/>
       <c r="AV22" s="7">
         <f t="shared" si="12"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AW22" s="9"/>
       <c r="AX22" s="7"/>
       <c r="AY22" s="7">
         <f t="shared" si="13"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AZ22" s="10">
         <f t="shared" si="14"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BA22" s="10">
-        <f>G22-AZ22</f>
-        <v>100</v>
+        <f t="shared" si="15"/>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>45</v>
+      <c r="F23" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="G23" s="4">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7">
         <f t="shared" si="16"/>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="J23" s="9"/>
-      <c r="K23" s="7"/>
+      <c r="K23" s="7">
+        <v>15</v>
+      </c>
       <c r="L23" s="7">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="P23" s="9"/>
-      <c r="Q23" s="7"/>
+      <c r="Q23" s="7">
+        <v>5</v>
+      </c>
       <c r="R23" s="7">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="S23" s="9"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="V23" s="9"/>
       <c r="W23" s="7"/>
       <c r="X23" s="7">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="Y23" s="9"/>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AB23" s="9"/>
       <c r="AC23" s="7"/>
       <c r="AD23" s="7">
         <f t="shared" si="6"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AE23" s="9"/>
       <c r="AF23" s="7"/>
       <c r="AG23" s="7">
         <f t="shared" si="7"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AH23" s="9"/>
       <c r="AI23" s="7"/>
       <c r="AJ23" s="7">
         <f t="shared" si="8"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AK23" s="9"/>
       <c r="AL23" s="7"/>
       <c r="AM23" s="7">
         <f t="shared" si="9"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AN23" s="9"/>
       <c r="AO23" s="7"/>
       <c r="AP23" s="7">
         <f t="shared" si="10"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AQ23" s="9"/>
       <c r="AR23" s="7"/>
       <c r="AS23" s="7">
         <f t="shared" si="11"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AT23" s="9"/>
       <c r="AU23" s="7"/>
       <c r="AV23" s="7">
         <f t="shared" si="12"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AW23" s="9"/>
       <c r="AX23" s="7"/>
       <c r="AY23" s="7">
         <f t="shared" si="13"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AZ23" s="10">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BA23" s="10">
         <f>G23-AZ23</f>
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="2:53" ht="45" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>44</v>
@@ -3142,111 +3151,115 @@
         <v>45</v>
       </c>
       <c r="G24" s="4">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7">
         <f t="shared" si="16"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="P24" s="9"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7">
         <f t="shared" si="2"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="S24" s="9"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7">
         <f t="shared" si="3"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="V24" s="9"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="Y24" s="9"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AB24" s="9"/>
       <c r="AC24" s="7"/>
       <c r="AD24" s="7">
         <f t="shared" si="6"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AE24" s="9"/>
       <c r="AF24" s="7"/>
       <c r="AG24" s="7">
         <f t="shared" si="7"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AH24" s="9"/>
       <c r="AI24" s="7"/>
       <c r="AJ24" s="7">
         <f t="shared" si="8"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AK24" s="9"/>
       <c r="AL24" s="7"/>
       <c r="AM24" s="7">
         <f t="shared" si="9"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AN24" s="9"/>
       <c r="AO24" s="7"/>
       <c r="AP24" s="7">
         <f t="shared" si="10"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AQ24" s="9"/>
       <c r="AR24" s="7"/>
       <c r="AS24" s="7">
         <f t="shared" si="11"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AT24" s="9"/>
       <c r="AU24" s="7"/>
       <c r="AV24" s="7">
         <f t="shared" si="12"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AW24" s="9"/>
       <c r="AX24" s="7"/>
       <c r="AY24" s="7">
         <f t="shared" si="13"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AZ24" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BA24" s="10">
-        <f t="shared" ref="BA24:BA37" si="17">G24-AZ24</f>
-        <v>180</v>
+        <f>G24-AZ24</f>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="2:53" ht="45" x14ac:dyDescent="0.25">
-      <c r="B25" s="12"/>
-      <c r="C25" s="4"/>
+      <c r="B25" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="D25" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>44</v>
@@ -3255,117 +3268,117 @@
         <v>45</v>
       </c>
       <c r="G25" s="4">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7">
         <f t="shared" si="16"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="P25" s="9"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7">
         <f t="shared" si="2"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="S25" s="9"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7">
         <f t="shared" si="3"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="V25" s="9"/>
       <c r="W25" s="7"/>
       <c r="X25" s="7">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="Y25" s="9"/>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AB25" s="9"/>
       <c r="AC25" s="7"/>
       <c r="AD25" s="7">
         <f t="shared" si="6"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AE25" s="9"/>
       <c r="AF25" s="7"/>
       <c r="AG25" s="7">
         <f t="shared" si="7"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AH25" s="9"/>
       <c r="AI25" s="7"/>
       <c r="AJ25" s="7">
         <f t="shared" si="8"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AK25" s="9"/>
       <c r="AL25" s="7"/>
       <c r="AM25" s="7">
         <f t="shared" si="9"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AN25" s="9"/>
       <c r="AO25" s="7"/>
       <c r="AP25" s="7">
         <f t="shared" si="10"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AQ25" s="9"/>
       <c r="AR25" s="7"/>
       <c r="AS25" s="7">
         <f t="shared" si="11"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AT25" s="9"/>
       <c r="AU25" s="7"/>
       <c r="AV25" s="7">
         <f t="shared" si="12"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AW25" s="9"/>
       <c r="AX25" s="7"/>
       <c r="AY25" s="7">
         <f t="shared" si="13"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AZ25" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BA25" s="10">
-        <f t="shared" si="17"/>
-        <v>180</v>
+        <f t="shared" ref="BA25:BA39" si="17">G25-AZ25</f>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" s="12"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G26" s="4">
         <v>120</v>
@@ -3376,113 +3389,109 @@
         <v>120</v>
       </c>
       <c r="J26" s="9"/>
-      <c r="K26" s="7">
-        <v>15</v>
-      </c>
+      <c r="K26" s="7"/>
       <c r="L26" s="7">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="P26" s="9"/>
-      <c r="Q26" s="7">
-        <v>5</v>
-      </c>
+      <c r="Q26" s="7"/>
       <c r="R26" s="7">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="S26" s="9"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="V26" s="9"/>
       <c r="W26" s="7"/>
       <c r="X26" s="7">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Y26" s="9"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AB26" s="9"/>
       <c r="AC26" s="7"/>
       <c r="AD26" s="7">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AE26" s="9"/>
       <c r="AF26" s="7"/>
       <c r="AG26" s="7">
         <f t="shared" si="7"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AH26" s="9"/>
       <c r="AI26" s="7"/>
       <c r="AJ26" s="7">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AK26" s="9"/>
       <c r="AL26" s="7"/>
       <c r="AM26" s="7">
         <f t="shared" si="9"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AN26" s="9"/>
       <c r="AO26" s="7"/>
       <c r="AP26" s="7">
         <f t="shared" si="10"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AQ26" s="9"/>
       <c r="AR26" s="7"/>
       <c r="AS26" s="7">
         <f t="shared" si="11"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AT26" s="9"/>
       <c r="AU26" s="7"/>
       <c r="AV26" s="7">
         <f t="shared" si="12"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AW26" s="9"/>
       <c r="AX26" s="7"/>
       <c r="AY26" s="7">
         <f t="shared" si="13"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AZ26" s="10">
         <f t="shared" si="14"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BA26" s="10">
         <f t="shared" si="17"/>
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G27" s="4">
         <v>120</v>
@@ -3493,220 +3502,172 @@
         <v>120</v>
       </c>
       <c r="J27" s="9"/>
-      <c r="K27" s="7"/>
+      <c r="K27" s="7">
+        <v>15</v>
+      </c>
       <c r="L27" s="7">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="P27" s="9"/>
-      <c r="Q27" s="7"/>
+      <c r="Q27" s="7">
+        <v>5</v>
+      </c>
       <c r="R27" s="7">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="S27" s="9"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="V27" s="9"/>
       <c r="W27" s="7"/>
       <c r="X27" s="7">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="Y27" s="9"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="7">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AB27" s="9"/>
       <c r="AC27" s="7"/>
       <c r="AD27" s="7">
         <f t="shared" si="6"/>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AE27" s="9"/>
       <c r="AF27" s="7"/>
       <c r="AG27" s="7">
         <f t="shared" si="7"/>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AH27" s="9"/>
       <c r="AI27" s="7"/>
       <c r="AJ27" s="7">
         <f t="shared" si="8"/>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AK27" s="9"/>
       <c r="AL27" s="7"/>
       <c r="AM27" s="7">
         <f t="shared" si="9"/>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN27" s="9"/>
       <c r="AO27" s="7"/>
       <c r="AP27" s="7">
         <f t="shared" si="10"/>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AQ27" s="9"/>
       <c r="AR27" s="7"/>
       <c r="AS27" s="7">
         <f t="shared" si="11"/>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AT27" s="9"/>
       <c r="AU27" s="7"/>
       <c r="AV27" s="7">
         <f t="shared" si="12"/>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AW27" s="9"/>
       <c r="AX27" s="7"/>
       <c r="AY27" s="7">
         <f t="shared" si="13"/>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AZ27" s="10">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BA27" s="10">
         <f t="shared" si="17"/>
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="2:53" ht="45" x14ac:dyDescent="0.25">
-      <c r="B28" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G28" s="4">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7">
         <f t="shared" si="16"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="J28" s="9"/>
       <c r="K28" s="7"/>
-      <c r="L28" s="7">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
+      <c r="L28" s="7"/>
       <c r="M28" s="9"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="7">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
+      <c r="O28" s="7"/>
       <c r="P28" s="9"/>
       <c r="Q28" s="7"/>
-      <c r="R28" s="7">
-        <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
+      <c r="R28" s="7"/>
       <c r="S28" s="9"/>
       <c r="T28" s="7"/>
-      <c r="U28" s="7">
-        <f t="shared" si="3"/>
-        <v>180</v>
-      </c>
+      <c r="U28" s="7"/>
       <c r="V28" s="9"/>
       <c r="W28" s="7"/>
-      <c r="X28" s="7">
-        <f t="shared" si="4"/>
-        <v>180</v>
-      </c>
+      <c r="X28" s="7"/>
       <c r="Y28" s="9"/>
       <c r="Z28" s="7"/>
-      <c r="AA28" s="7">
-        <f t="shared" si="5"/>
-        <v>180</v>
-      </c>
+      <c r="AA28" s="7"/>
       <c r="AB28" s="9"/>
       <c r="AC28" s="7"/>
-      <c r="AD28" s="7">
-        <f t="shared" si="6"/>
-        <v>180</v>
-      </c>
+      <c r="AD28" s="7"/>
       <c r="AE28" s="9"/>
       <c r="AF28" s="7"/>
-      <c r="AG28" s="7">
-        <f t="shared" si="7"/>
-        <v>180</v>
-      </c>
+      <c r="AG28" s="7"/>
       <c r="AH28" s="9"/>
       <c r="AI28" s="7"/>
-      <c r="AJ28" s="7">
-        <f t="shared" si="8"/>
-        <v>180</v>
-      </c>
+      <c r="AJ28" s="7"/>
       <c r="AK28" s="9"/>
       <c r="AL28" s="7"/>
-      <c r="AM28" s="7">
-        <f t="shared" si="9"/>
-        <v>180</v>
-      </c>
+      <c r="AM28" s="7"/>
       <c r="AN28" s="9"/>
       <c r="AO28" s="7"/>
-      <c r="AP28" s="7">
-        <f t="shared" si="10"/>
-        <v>180</v>
-      </c>
+      <c r="AP28" s="7"/>
       <c r="AQ28" s="9"/>
       <c r="AR28" s="7"/>
-      <c r="AS28" s="7">
-        <f t="shared" si="11"/>
-        <v>180</v>
-      </c>
+      <c r="AS28" s="7"/>
       <c r="AT28" s="9"/>
       <c r="AU28" s="7"/>
-      <c r="AV28" s="7">
-        <f t="shared" si="12"/>
-        <v>180</v>
-      </c>
+      <c r="AV28" s="7"/>
       <c r="AW28" s="9"/>
       <c r="AX28" s="7"/>
-      <c r="AY28" s="7">
-        <f t="shared" si="13"/>
-        <v>180</v>
-      </c>
-      <c r="AZ28" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BA28" s="10">
-        <f t="shared" si="17"/>
-        <v>180</v>
-      </c>
+      <c r="AY28" s="7"/>
+      <c r="AZ28" s="10"/>
+      <c r="BA28" s="10"/>
     </row>
     <row r="29" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>44</v>
@@ -3715,96 +3676,96 @@
         <v>45</v>
       </c>
       <c r="G29" s="4">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7">
         <f t="shared" si="16"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="P29" s="9"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7">
         <f t="shared" si="2"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="S29" s="9"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7">
         <f t="shared" si="3"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="V29" s="9"/>
       <c r="W29" s="7"/>
       <c r="X29" s="7">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="Y29" s="9"/>
       <c r="Z29" s="7"/>
       <c r="AA29" s="7">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AB29" s="9"/>
       <c r="AC29" s="7"/>
       <c r="AD29" s="7">
         <f t="shared" si="6"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AE29" s="9"/>
       <c r="AF29" s="7"/>
       <c r="AG29" s="7">
         <f t="shared" si="7"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AH29" s="9"/>
       <c r="AI29" s="7"/>
       <c r="AJ29" s="7">
         <f t="shared" si="8"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AK29" s="9"/>
       <c r="AL29" s="7"/>
       <c r="AM29" s="7">
         <f t="shared" si="9"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AN29" s="9"/>
       <c r="AO29" s="7"/>
       <c r="AP29" s="7">
         <f t="shared" si="10"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AQ29" s="9"/>
       <c r="AR29" s="7"/>
       <c r="AS29" s="7">
         <f t="shared" si="11"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AT29" s="9"/>
       <c r="AU29" s="7"/>
       <c r="AV29" s="7">
         <f t="shared" si="12"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AW29" s="9"/>
       <c r="AX29" s="7"/>
       <c r="AY29" s="7">
         <f t="shared" si="13"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AZ29" s="10">
         <f t="shared" si="14"/>
@@ -3812,131 +3773,131 @@
       </c>
       <c r="BA29" s="10">
         <f t="shared" si="17"/>
-        <v>180</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="2:53" ht="45" x14ac:dyDescent="0.25">
-      <c r="B30" s="12"/>
-      <c r="C30" s="4"/>
+      <c r="B30" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="D30" s="4" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G30" s="4">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7">
         <f t="shared" si="16"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="J30" s="9"/>
-      <c r="K30" s="7">
-        <v>10</v>
-      </c>
+      <c r="K30" s="7"/>
       <c r="L30" s="7">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="P30" s="9"/>
-      <c r="Q30" s="7">
-        <v>5</v>
-      </c>
+      <c r="Q30" s="7"/>
       <c r="R30" s="7">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="S30" s="9"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7">
         <f t="shared" si="3"/>
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="V30" s="9"/>
       <c r="W30" s="7"/>
       <c r="X30" s="7">
         <f t="shared" si="4"/>
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="Y30" s="9"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7">
         <f t="shared" si="5"/>
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="AB30" s="9"/>
       <c r="AC30" s="7"/>
       <c r="AD30" s="7">
         <f t="shared" si="6"/>
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="AE30" s="9"/>
       <c r="AF30" s="7"/>
       <c r="AG30" s="7">
         <f t="shared" si="7"/>
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="AH30" s="9"/>
       <c r="AI30" s="7"/>
       <c r="AJ30" s="7">
         <f t="shared" si="8"/>
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="AK30" s="9"/>
       <c r="AL30" s="7"/>
       <c r="AM30" s="7">
         <f t="shared" si="9"/>
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="AN30" s="9"/>
       <c r="AO30" s="7"/>
       <c r="AP30" s="7">
         <f t="shared" si="10"/>
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="AQ30" s="9"/>
       <c r="AR30" s="7"/>
       <c r="AS30" s="7">
         <f t="shared" si="11"/>
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="AT30" s="9"/>
       <c r="AU30" s="7"/>
       <c r="AV30" s="7">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="AW30" s="9"/>
       <c r="AX30" s="7"/>
       <c r="AY30" s="7">
         <f t="shared" si="13"/>
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="AZ30" s="10">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BA30" s="10">
         <f t="shared" si="17"/>
-        <v>105</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>44</v>
@@ -3945,96 +3906,96 @@
         <v>45</v>
       </c>
       <c r="G31" s="4">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7">
         <f t="shared" si="16"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="P31" s="9"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="S31" s="9"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="V31" s="9"/>
       <c r="W31" s="7"/>
       <c r="X31" s="7">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="Y31" s="9"/>
       <c r="Z31" s="7"/>
       <c r="AA31" s="7">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AB31" s="9"/>
       <c r="AC31" s="7"/>
       <c r="AD31" s="7">
         <f t="shared" si="6"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AE31" s="9"/>
       <c r="AF31" s="7"/>
       <c r="AG31" s="7">
         <f t="shared" si="7"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AH31" s="9"/>
       <c r="AI31" s="7"/>
       <c r="AJ31" s="7">
         <f t="shared" si="8"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AK31" s="9"/>
       <c r="AL31" s="7"/>
       <c r="AM31" s="7">
         <f t="shared" si="9"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AN31" s="9"/>
       <c r="AO31" s="7"/>
       <c r="AP31" s="7">
         <f t="shared" si="10"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AQ31" s="9"/>
       <c r="AR31" s="7"/>
       <c r="AS31" s="7">
         <f t="shared" si="11"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AT31" s="9"/>
       <c r="AU31" s="7"/>
       <c r="AV31" s="7">
         <f t="shared" si="12"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AW31" s="9"/>
       <c r="AX31" s="7"/>
       <c r="AY31" s="7">
         <f t="shared" si="13"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AZ31" s="10">
         <f t="shared" si="14"/>
@@ -4042,133 +4003,131 @@
       </c>
       <c r="BA31" s="10">
         <f t="shared" si="17"/>
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="2:53" ht="45" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G32" s="4">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7">
         <f t="shared" si="16"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="J32" s="9"/>
-      <c r="K32" s="7"/>
+      <c r="K32" s="7">
+        <v>10</v>
+      </c>
       <c r="L32" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="M32" s="9"/>
-      <c r="N32" s="7">
-        <v>10</v>
-      </c>
+      <c r="N32" s="7"/>
       <c r="O32" s="7">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="P32" s="9"/>
-      <c r="Q32" s="7"/>
+      <c r="Q32" s="7">
+        <v>5</v>
+      </c>
       <c r="R32" s="7">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="S32" s="9"/>
       <c r="T32" s="7"/>
       <c r="U32" s="7">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="V32" s="9"/>
       <c r="W32" s="7"/>
       <c r="X32" s="7">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="Y32" s="9"/>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AB32" s="9"/>
       <c r="AC32" s="7"/>
       <c r="AD32" s="7">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AE32" s="9"/>
       <c r="AF32" s="7"/>
       <c r="AG32" s="7">
         <f t="shared" si="7"/>
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AH32" s="9"/>
       <c r="AI32" s="7"/>
       <c r="AJ32" s="7">
         <f t="shared" si="8"/>
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AK32" s="9"/>
       <c r="AL32" s="7"/>
       <c r="AM32" s="7">
         <f t="shared" si="9"/>
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AN32" s="9"/>
       <c r="AO32" s="7"/>
       <c r="AP32" s="7">
         <f t="shared" si="10"/>
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AQ32" s="9"/>
       <c r="AR32" s="7"/>
       <c r="AS32" s="7">
         <f t="shared" si="11"/>
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AT32" s="9"/>
       <c r="AU32" s="7"/>
       <c r="AV32" s="7">
         <f t="shared" si="12"/>
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AW32" s="9"/>
       <c r="AX32" s="7"/>
       <c r="AY32" s="7">
         <f t="shared" si="13"/>
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AZ32" s="10">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA32" s="10">
         <f t="shared" si="17"/>
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B33" s="12"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>44</v>
@@ -4177,96 +4136,96 @@
         <v>45</v>
       </c>
       <c r="G33" s="4">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7">
         <f t="shared" si="16"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="P33" s="9"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="S33" s="9"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="V33" s="9"/>
       <c r="W33" s="7"/>
       <c r="X33" s="7">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="Y33" s="9"/>
       <c r="Z33" s="7"/>
       <c r="AA33" s="7">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AB33" s="9"/>
       <c r="AC33" s="7"/>
       <c r="AD33" s="7">
         <f t="shared" si="6"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AE33" s="9"/>
       <c r="AF33" s="7"/>
       <c r="AG33" s="7">
         <f t="shared" si="7"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AH33" s="9"/>
       <c r="AI33" s="7"/>
       <c r="AJ33" s="7">
         <f t="shared" si="8"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AK33" s="9"/>
       <c r="AL33" s="7"/>
       <c r="AM33" s="7">
         <f t="shared" si="9"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AN33" s="9"/>
       <c r="AO33" s="7"/>
       <c r="AP33" s="7">
         <f t="shared" si="10"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AQ33" s="9"/>
       <c r="AR33" s="7"/>
       <c r="AS33" s="7">
         <f t="shared" si="11"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AT33" s="9"/>
       <c r="AU33" s="7"/>
       <c r="AV33" s="7">
         <f t="shared" si="12"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AW33" s="9"/>
       <c r="AX33" s="7"/>
       <c r="AY33" s="7">
         <f t="shared" si="13"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AZ33" s="10">
         <f t="shared" si="14"/>
@@ -4274,14 +4233,18 @@
       </c>
       <c r="BA33" s="10">
         <f t="shared" si="17"/>
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="2:53" ht="45" x14ac:dyDescent="0.25">
-      <c r="B34" s="12"/>
-      <c r="C34" s="4"/>
+      <c r="B34" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="D34" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>44</v>
@@ -4304,97 +4267,99 @@
         <v>90</v>
       </c>
       <c r="M34" s="9"/>
-      <c r="N34" s="7"/>
+      <c r="N34" s="7">
+        <v>10</v>
+      </c>
       <c r="O34" s="7">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="P34" s="9"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="S34" s="9"/>
       <c r="T34" s="7"/>
       <c r="U34" s="7">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="V34" s="9"/>
       <c r="W34" s="7"/>
       <c r="X34" s="7">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Y34" s="9"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AB34" s="9"/>
       <c r="AC34" s="7"/>
       <c r="AD34" s="7">
         <f t="shared" si="6"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AE34" s="9"/>
       <c r="AF34" s="7"/>
       <c r="AG34" s="7">
         <f t="shared" si="7"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH34" s="9"/>
       <c r="AI34" s="7"/>
       <c r="AJ34" s="7">
         <f t="shared" si="8"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AK34" s="9"/>
       <c r="AL34" s="7"/>
       <c r="AM34" s="7">
         <f t="shared" si="9"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN34" s="9"/>
       <c r="AO34" s="7"/>
       <c r="AP34" s="7">
         <f t="shared" si="10"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AQ34" s="9"/>
       <c r="AR34" s="7"/>
       <c r="AS34" s="7">
         <f t="shared" si="11"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AT34" s="9"/>
       <c r="AU34" s="7"/>
       <c r="AV34" s="7">
         <f t="shared" si="12"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW34" s="9"/>
       <c r="AX34" s="7"/>
       <c r="AY34" s="7">
         <f t="shared" si="13"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AZ34" s="10">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BA34" s="10">
         <f t="shared" si="17"/>
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B35" s="12"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>44</v>
@@ -4507,40 +4472,36 @@
       <c r="B36" s="12"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G36" s="4">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7">
         <f t="shared" si="16"/>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="J36" s="9"/>
-      <c r="K36" s="7">
-        <v>25</v>
-      </c>
+      <c r="K36" s="7"/>
       <c r="L36" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="P36" s="9"/>
-      <c r="Q36" s="7">
-        <v>5</v>
-      </c>
+      <c r="Q36" s="7"/>
       <c r="R36" s="7">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -4594,37 +4555,39 @@
         <v>90</v>
       </c>
       <c r="AQ36" s="9"/>
-      <c r="AR36" s="7"/>
+      <c r="AR36" s="7">
+        <v>5</v>
+      </c>
       <c r="AS36" s="7">
         <f t="shared" si="11"/>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AT36" s="9"/>
       <c r="AU36" s="7"/>
       <c r="AV36" s="7">
         <f t="shared" si="12"/>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AW36" s="9"/>
       <c r="AX36" s="7"/>
       <c r="AY36" s="7">
         <f t="shared" si="13"/>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AZ36" s="10">
         <f t="shared" si="14"/>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="BA36" s="10">
         <f t="shared" si="17"/>
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>44</v>
@@ -4633,96 +4596,96 @@
         <v>45</v>
       </c>
       <c r="G37" s="4">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7">
         <f t="shared" si="16"/>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9"/>
       <c r="T37" s="7"/>
       <c r="U37" s="7">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9"/>
       <c r="W37" s="7"/>
       <c r="X37" s="7">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9"/>
       <c r="Z37" s="7"/>
       <c r="AA37" s="7">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="9"/>
       <c r="AC37" s="7"/>
       <c r="AD37" s="7">
         <f t="shared" si="6"/>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AE37" s="9"/>
       <c r="AF37" s="7"/>
       <c r="AG37" s="7">
         <f t="shared" si="7"/>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AH37" s="9"/>
       <c r="AI37" s="7"/>
       <c r="AJ37" s="7">
         <f t="shared" si="8"/>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AK37" s="9"/>
       <c r="AL37" s="7"/>
       <c r="AM37" s="7">
         <f t="shared" si="9"/>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AN37" s="9"/>
       <c r="AO37" s="7"/>
       <c r="AP37" s="7">
         <f t="shared" si="10"/>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AQ37" s="9"/>
       <c r="AR37" s="7"/>
       <c r="AS37" s="7">
         <f t="shared" si="11"/>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AT37" s="9"/>
       <c r="AU37" s="7"/>
       <c r="AV37" s="7">
         <f t="shared" si="12"/>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AW37" s="9"/>
       <c r="AX37" s="7"/>
       <c r="AY37" s="7">
         <f t="shared" si="13"/>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AZ37" s="10">
         <f t="shared" si="14"/>
@@ -4730,123 +4693,348 @@
       </c>
       <c r="BA37" s="10">
         <f t="shared" si="17"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="2:53" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="4"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="2:53" ht="45" x14ac:dyDescent="0.25">
+      <c r="B38" s="12"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="4">
+        <v>120</v>
+      </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J38" s="9"/>
-      <c r="K38" s="7"/>
+      <c r="K38" s="7">
+        <v>25</v>
+      </c>
       <c r="L38" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="P38" s="9"/>
-      <c r="Q38" s="7"/>
+      <c r="Q38" s="7">
+        <v>5</v>
+      </c>
       <c r="R38" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="S38" s="9"/>
       <c r="T38" s="7"/>
       <c r="U38" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="V38" s="9"/>
       <c r="W38" s="7"/>
       <c r="X38" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="Y38" s="9"/>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AB38" s="9"/>
       <c r="AC38" s="7"/>
       <c r="AD38" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AE38" s="9"/>
       <c r="AF38" s="7"/>
       <c r="AG38" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AH38" s="9"/>
       <c r="AI38" s="7"/>
       <c r="AJ38" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AK38" s="9"/>
       <c r="AL38" s="7"/>
       <c r="AM38" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN38" s="9"/>
       <c r="AO38" s="7"/>
       <c r="AP38" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AQ38" s="9"/>
       <c r="AR38" s="7"/>
       <c r="AS38" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AT38" s="9"/>
       <c r="AU38" s="7"/>
       <c r="AV38" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AW38" s="9"/>
       <c r="AX38" s="7"/>
       <c r="AY38" s="7">
         <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="AZ38" s="10">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="BA38" s="10">
+        <f t="shared" si="17"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="2:53" ht="45" x14ac:dyDescent="0.25">
+      <c r="B39" s="12"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="4">
+        <v>120</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7">
+        <f t="shared" si="16"/>
+        <v>120</v>
+      </c>
+      <c r="J39" s="9"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="M39" s="9"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="S39" s="9"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="V39" s="9"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="AB39" s="9"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="AE39" s="9"/>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="7">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="AH39" s="9"/>
+      <c r="AI39" s="7"/>
+      <c r="AJ39" s="7">
+        <f t="shared" si="8"/>
+        <v>120</v>
+      </c>
+      <c r="AK39" s="9"/>
+      <c r="AL39" s="7"/>
+      <c r="AM39" s="7">
+        <f t="shared" si="9"/>
+        <v>120</v>
+      </c>
+      <c r="AN39" s="9"/>
+      <c r="AO39" s="7"/>
+      <c r="AP39" s="7">
+        <f t="shared" si="10"/>
+        <v>120</v>
+      </c>
+      <c r="AQ39" s="9"/>
+      <c r="AR39" s="7"/>
+      <c r="AS39" s="7">
+        <f t="shared" si="11"/>
+        <v>120</v>
+      </c>
+      <c r="AT39" s="9"/>
+      <c r="AU39" s="7"/>
+      <c r="AV39" s="7">
+        <f t="shared" si="12"/>
+        <v>120</v>
+      </c>
+      <c r="AW39" s="9"/>
+      <c r="AX39" s="7"/>
+      <c r="AY39" s="7">
+        <f t="shared" si="13"/>
+        <v>120</v>
+      </c>
+      <c r="AZ39" s="10">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AZ38" s="10" t="e">
-        <f>H38+K38+N38+Q38+T38+W38+Z38+AC38+AF38+AI38+AL38+AO38+AR38+AU38+AX38+#REF!+#REF!+#REF!+#REF!+#REF!</f>
+      <c r="BA39" s="10">
+        <f t="shared" si="17"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="2:53" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="9"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="9"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="9"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V40" s="9"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB40" s="9"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE40" s="9"/>
+      <c r="AF40" s="7"/>
+      <c r="AG40" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH40" s="9"/>
+      <c r="AI40" s="7"/>
+      <c r="AJ40" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK40" s="9"/>
+      <c r="AL40" s="7"/>
+      <c r="AM40" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN40" s="9"/>
+      <c r="AO40" s="7"/>
+      <c r="AP40" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="9"/>
+      <c r="AR40" s="7"/>
+      <c r="AS40" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AT40" s="9"/>
+      <c r="AU40" s="7"/>
+      <c r="AV40" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AW40" s="9"/>
+      <c r="AX40" s="7"/>
+      <c r="AY40" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AZ40" s="10" t="e">
+        <f>H40+K40+N40+Q40+T40+W40+Z40+AC40+AF40+AI40+AL40+AO40+AR40+AU40+AX40+#REF!+#REF!+#REF!+#REF!+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="BA38" s="10" t="e">
-        <f>G38-AZ38</f>
+      <c r="BA40" s="10" t="e">
+        <f>G40-AZ40</f>
         <v>#REF!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -4858,6 +5046,11 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Juan/Reviciones/Plantilla_Lista_de_Tareas_de_la_revisión_2.xlsx
+++ b/Juan/Reviciones/Plantilla_Lista_de_Tareas_de_la_revisión_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juuan\Desktop\6to semstre\Des. Software\Proyecto\EmpenioFacil\Juan\Reviciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F365849D-2B7C-4728-AEE1-8E8C250EFB22}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCD56FB-FCE0-4114-BD8E-9B575D9B13A6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="589" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -198,9 +198,6 @@
     <t>Guardar usuario</t>
   </si>
   <si>
-    <t>En Proceso</t>
-  </si>
-  <si>
     <t>CU-U-BU</t>
   </si>
   <si>
@@ -271,6 +268,9 @@
   </si>
   <si>
     <t>Validar datos</t>
+  </si>
+  <si>
+    <t>Hecho</t>
   </si>
 </sst>
 </file>
@@ -465,7 +465,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -775,10 +775,10 @@
   <dimension ref="B1:BA40"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="AG36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="AL39" sqref="AL39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,7 +1189,7 @@
         <v>44</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G7" s="4">
         <v>180</v>
@@ -1306,7 +1306,7 @@
         <v>44</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G8" s="4">
         <v>180</v>
@@ -1391,37 +1391,39 @@
         <v>160</v>
       </c>
       <c r="AT8" s="9"/>
-      <c r="AU8" s="7"/>
+      <c r="AU8" s="7">
+        <v>5</v>
+      </c>
       <c r="AV8" s="7">
         <f t="shared" si="12"/>
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AW8" s="9"/>
       <c r="AX8" s="7"/>
       <c r="AY8" s="7">
         <f t="shared" si="13"/>
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AZ8" s="10">
         <f t="shared" si="14"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="BA8" s="10">
         <f t="shared" si="15"/>
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="G9" s="4">
         <v>180</v>
@@ -1538,7 +1540,7 @@
         <v>44</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="G10" s="4">
         <v>120</v>
@@ -1649,7 +1651,7 @@
       <c r="B11" s="12"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>44</v>
@@ -1879,13 +1881,13 @@
       <c r="B13" s="12"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="G13" s="4">
         <v>90</v>
@@ -2000,7 +2002,7 @@
         <v>44</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G14" s="4">
         <v>90</v>
@@ -2228,7 +2230,7 @@
         <v>44</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="G16" s="4">
         <v>120</v>
@@ -2339,7 +2341,7 @@
       <c r="B17" s="12"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>44</v>
@@ -2450,13 +2452,13 @@
     </row>
     <row r="18" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>44</v>
@@ -2569,13 +2571,13 @@
       <c r="B19" s="12"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="G19" s="4">
         <v>80</v>
@@ -2686,7 +2688,7 @@
       <c r="B20" s="12"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>44</v>
@@ -2799,7 +2801,7 @@
       <c r="B21" s="12"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>44</v>
@@ -2912,13 +2914,13 @@
       <c r="B22" s="12"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G22" s="4">
         <v>80</v>
@@ -3031,7 +3033,7 @@
         <v>44</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="G23" s="4">
         <v>100</v>
@@ -3142,7 +3144,7 @@
       <c r="B24" s="12"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>44</v>
@@ -3253,13 +3255,13 @@
     </row>
     <row r="25" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>44</v>
@@ -3372,7 +3374,7 @@
       <c r="B26" s="12"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>44</v>
@@ -3491,7 +3493,7 @@
         <v>44</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="G27" s="4">
         <v>120</v>
@@ -3602,7 +3604,7 @@
       <c r="B28" s="12"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>44</v>
@@ -3620,54 +3622,102 @@
       </c>
       <c r="J28" s="9"/>
       <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
+      <c r="L28" s="7">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
       <c r="M28" s="9"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
+      <c r="O28" s="7">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
       <c r="P28" s="9"/>
       <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
+      <c r="R28" s="7">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
       <c r="S28" s="9"/>
       <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
+      <c r="U28" s="7">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
       <c r="V28" s="9"/>
       <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
+      <c r="X28" s="7">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
       <c r="Y28" s="9"/>
       <c r="Z28" s="7"/>
-      <c r="AA28" s="7"/>
+      <c r="AA28" s="7">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
       <c r="AB28" s="9"/>
       <c r="AC28" s="7"/>
-      <c r="AD28" s="7"/>
+      <c r="AD28" s="7">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
       <c r="AE28" s="9"/>
       <c r="AF28" s="7"/>
-      <c r="AG28" s="7"/>
+      <c r="AG28" s="7">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
       <c r="AH28" s="9"/>
       <c r="AI28" s="7"/>
-      <c r="AJ28" s="7"/>
+      <c r="AJ28" s="7">
+        <f t="shared" si="8"/>
+        <v>120</v>
+      </c>
       <c r="AK28" s="9"/>
       <c r="AL28" s="7"/>
-      <c r="AM28" s="7"/>
+      <c r="AM28" s="7">
+        <f t="shared" si="9"/>
+        <v>120</v>
+      </c>
       <c r="AN28" s="9"/>
       <c r="AO28" s="7"/>
-      <c r="AP28" s="7"/>
+      <c r="AP28" s="7">
+        <f t="shared" si="10"/>
+        <v>120</v>
+      </c>
       <c r="AQ28" s="9"/>
       <c r="AR28" s="7"/>
-      <c r="AS28" s="7"/>
+      <c r="AS28" s="7">
+        <f t="shared" si="11"/>
+        <v>120</v>
+      </c>
       <c r="AT28" s="9"/>
       <c r="AU28" s="7"/>
-      <c r="AV28" s="7"/>
+      <c r="AV28" s="7">
+        <f t="shared" si="12"/>
+        <v>120</v>
+      </c>
       <c r="AW28" s="9"/>
       <c r="AX28" s="7"/>
-      <c r="AY28" s="7"/>
-      <c r="AZ28" s="10"/>
-      <c r="BA28" s="10"/>
+      <c r="AY28" s="7">
+        <f t="shared" si="13"/>
+        <v>120</v>
+      </c>
+      <c r="AZ28" s="10">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BA28" s="10">
+        <f t="shared" si="17"/>
+        <v>120</v>
+      </c>
     </row>
     <row r="29" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>44</v>
@@ -3778,13 +3828,13 @@
     </row>
     <row r="30" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>44</v>
@@ -3897,7 +3947,7 @@
       <c r="B31" s="12"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>44</v>
@@ -4016,7 +4066,7 @@
         <v>44</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="G32" s="4">
         <v>120</v>
@@ -4127,7 +4177,7 @@
       <c r="B33" s="12"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>44</v>
@@ -4238,19 +4288,19 @@
     </row>
     <row r="34" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="G34" s="4">
         <v>90</v>
@@ -4359,7 +4409,7 @@
       <c r="B35" s="12"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>44</v>
@@ -4472,13 +4522,13 @@
       <c r="B36" s="12"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G36" s="4">
         <v>90</v>
@@ -4587,7 +4637,7 @@
       <c r="B37" s="12"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>44</v>
@@ -4706,7 +4756,7 @@
         <v>44</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="G38" s="4">
         <v>120</v>
@@ -4817,7 +4867,7 @@
       <c r="B39" s="12"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>44</v>
@@ -5035,6 +5085,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -5046,11 +5101,6 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Juan/Reviciones/Plantilla_Lista_de_Tareas_de_la_revisión_2.xlsx
+++ b/Juan/Reviciones/Plantilla_Lista_de_Tareas_de_la_revisión_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juuan\Desktop\6to semstre\Des. Software\Proyecto\EmpenioFacil\Juan\Reviciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCD56FB-FCE0-4114-BD8E-9B575D9B13A6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28646878-B549-466A-8A66-D59AC66E0F86}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="589" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -464,9 +464,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,10 +772,10 @@
   <dimension ref="B1:BA40"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="AG36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="AG6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AL39" sqref="AL39"/>
+      <selection pane="bottomRight" activeCell="AX28" sqref="AX28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2087,24 +2084,26 @@
         <v>75</v>
       </c>
       <c r="AT14" s="9"/>
-      <c r="AU14" s="7"/>
+      <c r="AU14" s="7">
+        <v>10</v>
+      </c>
       <c r="AV14" s="7">
         <f t="shared" si="12"/>
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AW14" s="9"/>
       <c r="AX14" s="7"/>
       <c r="AY14" s="7">
         <f t="shared" si="13"/>
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AZ14" s="10">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="BA14" s="10">
         <f t="shared" si="15"/>
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -3003,24 +3002,26 @@
         <v>80</v>
       </c>
       <c r="AT22" s="9"/>
-      <c r="AU22" s="7"/>
+      <c r="AU22" s="7">
+        <v>10</v>
+      </c>
       <c r="AV22" s="7">
         <f t="shared" si="12"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AW22" s="9"/>
       <c r="AX22" s="7"/>
       <c r="AY22" s="7">
         <f t="shared" si="13"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AZ22" s="10">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BA22" s="10">
         <f t="shared" si="15"/>
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -3032,7 +3033,7 @@
       <c r="E23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G23" s="4">
@@ -3693,24 +3694,26 @@
         <v>120</v>
       </c>
       <c r="AT28" s="9"/>
-      <c r="AU28" s="7"/>
+      <c r="AU28" s="7">
+        <v>10</v>
+      </c>
       <c r="AV28" s="7">
         <f t="shared" si="12"/>
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AW28" s="9"/>
       <c r="AX28" s="7"/>
       <c r="AY28" s="7">
         <f t="shared" si="13"/>
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AZ28" s="10">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BA28" s="10">
         <f t="shared" si="17"/>
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -4613,24 +4616,26 @@
         <v>85</v>
       </c>
       <c r="AT36" s="9"/>
-      <c r="AU36" s="7"/>
+      <c r="AU36" s="7">
+        <v>10</v>
+      </c>
       <c r="AV36" s="7">
         <f t="shared" si="12"/>
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AW36" s="9"/>
       <c r="AX36" s="7"/>
       <c r="AY36" s="7">
         <f t="shared" si="13"/>
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AZ36" s="10">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BA36" s="10">
         <f t="shared" si="17"/>
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -5085,11 +5090,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -5101,6 +5101,11 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Juan/Reviciones/Plantilla_Lista_de_Tareas_de_la_revisión_2.xlsx
+++ b/Juan/Reviciones/Plantilla_Lista_de_Tareas_de_la_revisión_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juuan\Desktop\6to semstre\Des. Software\Proyecto\EmpenioFacil\Juan\Reviciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28646878-B549-466A-8A66-D59AC66E0F86}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043B8540-036C-4556-A971-69358EBD7B29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="589" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -772,10 +772,10 @@
   <dimension ref="B1:BA40"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="AG6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="AG12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AX28" sqref="AX28"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,7 +1303,7 @@
         <v>44</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="G8" s="4">
         <v>180</v>
@@ -5090,6 +5090,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -5101,11 +5106,6 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Juan/Reviciones/Plantilla_Lista_de_Tareas_de_la_revisión_2.xlsx
+++ b/Juan/Reviciones/Plantilla_Lista_de_Tareas_de_la_revisión_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juuan\Desktop\6to semstre\Des. Software\Proyecto\EmpenioFacil\Juan\Reviciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043B8540-036C-4556-A971-69358EBD7B29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC56E15-0392-4BF0-9B68-766213954908}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="589" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Instructivo" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Casos de Uso'!$A$1:$BB$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Casos de Uso'!$A$1:$BB$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Casos de Uso'!$B:$F,'Casos de Uso'!$1:$5</definedName>
   </definedNames>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="77">
   <si>
     <t>Columna</t>
   </si>
@@ -204,15 +204,6 @@
     <t>Usuario - Buscar usuario</t>
   </si>
   <si>
-    <t>Buscar usuario por numero de personal</t>
-  </si>
-  <si>
-    <t>Buscar usuario por rfc</t>
-  </si>
-  <si>
-    <t>buscar usuario por nombre</t>
-  </si>
-  <si>
     <t>CU-U-MU</t>
   </si>
   <si>
@@ -271,6 +262,9 @@
   </si>
   <si>
     <t>Hecho</t>
+  </si>
+  <si>
+    <t>Buscar usuario</t>
   </si>
 </sst>
 </file>
@@ -769,13 +763,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:BA40"/>
+  <dimension ref="B1:BA38"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="AG12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="AG36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="AK35" sqref="AK35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,7 +1067,7 @@
         <v>44</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="G6" s="4">
         <v>180</v>
@@ -1086,94 +1080,96 @@
       <c r="J6" s="9"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7">
-        <f t="shared" ref="L6:L40" si="0">I6-K6</f>
+        <f t="shared" ref="L6:L38" si="0">I6-K6</f>
         <v>180</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7">
-        <f t="shared" ref="O6:O40" si="1">L6-N6</f>
+        <f t="shared" ref="O6:O38" si="1">L6-N6</f>
         <v>180</v>
       </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7">
-        <f t="shared" ref="R6:R40" si="2">O6-Q6</f>
+        <f t="shared" ref="R6:R38" si="2">O6-Q6</f>
         <v>180</v>
       </c>
       <c r="S6" s="9"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7">
-        <f t="shared" ref="U6:U40" si="3">R6-T6</f>
+        <f t="shared" ref="U6:U38" si="3">R6-T6</f>
         <v>180</v>
       </c>
       <c r="V6" s="9"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7">
-        <f t="shared" ref="X6:X40" si="4">U6-W6</f>
+        <f t="shared" ref="X6:X38" si="4">U6-W6</f>
         <v>180</v>
       </c>
       <c r="Y6" s="9"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7">
-        <f t="shared" ref="AA6:AA40" si="5">X6-Z6</f>
+        <f t="shared" ref="AA6:AA38" si="5">X6-Z6</f>
         <v>180</v>
       </c>
       <c r="AB6" s="9"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7">
-        <f t="shared" ref="AD6:AD40" si="6">AA6-AC6</f>
+        <f t="shared" ref="AD6:AD38" si="6">AA6-AC6</f>
         <v>180</v>
       </c>
       <c r="AE6" s="9"/>
       <c r="AF6" s="7"/>
       <c r="AG6" s="7">
-        <f t="shared" ref="AG6:AG40" si="7">AD6-AF6</f>
+        <f t="shared" ref="AG6:AG38" si="7">AD6-AF6</f>
         <v>180</v>
       </c>
       <c r="AH6" s="9"/>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7">
-        <f t="shared" ref="AJ6:AJ40" si="8">AG6-AI6</f>
+        <f t="shared" ref="AJ6:AJ38" si="8">AG6-AI6</f>
         <v>180</v>
       </c>
       <c r="AK6" s="9"/>
       <c r="AL6" s="7"/>
       <c r="AM6" s="7">
-        <f t="shared" ref="AM6:AM40" si="9">AJ6-AL6</f>
+        <f t="shared" ref="AM6:AM38" si="9">AJ6-AL6</f>
         <v>180</v>
       </c>
       <c r="AN6" s="9"/>
       <c r="AO6" s="7"/>
       <c r="AP6" s="7">
-        <f t="shared" ref="AP6:AP40" si="10">AM6-AO6</f>
+        <f t="shared" ref="AP6:AP38" si="10">AM6-AO6</f>
         <v>180</v>
       </c>
       <c r="AQ6" s="9"/>
       <c r="AR6" s="7"/>
       <c r="AS6" s="7">
-        <f t="shared" ref="AS6:AS40" si="11">AP6-AR6</f>
+        <f t="shared" ref="AS6:AS38" si="11">AP6-AR6</f>
         <v>180</v>
       </c>
       <c r="AT6" s="9"/>
       <c r="AU6" s="7"/>
       <c r="AV6" s="7">
-        <f t="shared" ref="AV6:AV40" si="12">AS6-AU6</f>
+        <f t="shared" ref="AV6:AV38" si="12">AS6-AU6</f>
         <v>180</v>
       </c>
       <c r="AW6" s="9"/>
-      <c r="AX6" s="7"/>
+      <c r="AX6" s="7">
+        <v>30</v>
+      </c>
       <c r="AY6" s="7">
-        <f t="shared" ref="AY6:AY40" si="13">AV6-AX6</f>
-        <v>180</v>
+        <f t="shared" ref="AY6:AY38" si="13">AV6-AX6</f>
+        <v>150</v>
       </c>
       <c r="AZ6" s="10">
-        <f t="shared" ref="AZ6:AZ39" si="14">H6+K6+N6+Q6+T6+W6+Z6+AC6+AF6+AI6+AL6+AO6+AR6+AU6+AX6</f>
-        <v>0</v>
+        <f t="shared" ref="AZ6:AZ37" si="14">H6+K6+N6+Q6+T6+W6+Z6+AC6+AF6+AI6+AL6+AO6+AR6+AU6+AX6</f>
+        <v>30</v>
       </c>
       <c r="BA6" s="10">
-        <f t="shared" ref="BA6:BA22" si="15">G6-AZ6</f>
-        <v>180</v>
+        <f t="shared" ref="BA6:BA20" si="15">G6-AZ6</f>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -1186,14 +1182,14 @@
         <v>44</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="G7" s="4">
         <v>180</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7">
-        <f t="shared" ref="I7:I40" si="16">G7-H7</f>
+        <f t="shared" ref="I7:I38" si="16">G7-H7</f>
         <v>180</v>
       </c>
       <c r="J7" s="9"/>
@@ -1279,18 +1275,20 @@
         <v>150</v>
       </c>
       <c r="AW7" s="9"/>
-      <c r="AX7" s="7"/>
+      <c r="AX7" s="7">
+        <v>60</v>
+      </c>
       <c r="AY7" s="7">
         <f t="shared" si="13"/>
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="AZ7" s="10">
         <f t="shared" si="14"/>
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="BA7" s="10">
         <f t="shared" si="15"/>
-        <v>150</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -1303,7 +1301,7 @@
         <v>44</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="G8" s="4">
         <v>180</v>
@@ -1414,13 +1412,13 @@
       <c r="B9" s="12"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G9" s="4">
         <v>180</v>
@@ -1537,7 +1535,7 @@
         <v>44</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G10" s="4">
         <v>120</v>
@@ -1648,7 +1646,7 @@
       <c r="B11" s="12"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>44</v>
@@ -1771,7 +1769,7 @@
         <v>44</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="G12" s="4">
         <v>90</v>
@@ -1860,31 +1858,33 @@
         <v>90</v>
       </c>
       <c r="AW12" s="9"/>
-      <c r="AX12" s="7"/>
+      <c r="AX12" s="7">
+        <v>35</v>
+      </c>
       <c r="AY12" s="7">
         <f t="shared" si="13"/>
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AZ12" s="10">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="BA12" s="10">
         <f t="shared" si="15"/>
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G13" s="4">
         <v>90</v>
@@ -1975,18 +1975,20 @@
         <v>75</v>
       </c>
       <c r="AW13" s="9"/>
-      <c r="AX13" s="7"/>
+      <c r="AX13" s="7">
+        <v>25</v>
+      </c>
       <c r="AY13" s="7">
         <f t="shared" si="13"/>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AZ13" s="10">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="BA13" s="10">
         <f t="shared" si="15"/>
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -1999,7 +2001,7 @@
         <v>44</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="G14" s="4">
         <v>90</v>
@@ -2092,18 +2094,20 @@
         <v>65</v>
       </c>
       <c r="AW14" s="9"/>
-      <c r="AX14" s="7"/>
+      <c r="AX14" s="7">
+        <v>60</v>
+      </c>
       <c r="AY14" s="7">
         <f t="shared" si="13"/>
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="AZ14" s="10">
         <f t="shared" si="14"/>
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="BA14" s="10">
         <f t="shared" si="15"/>
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -2205,18 +2209,20 @@
         <v>90</v>
       </c>
       <c r="AW15" s="9"/>
-      <c r="AX15" s="7"/>
+      <c r="AX15" s="7">
+        <v>20</v>
+      </c>
       <c r="AY15" s="7">
         <f t="shared" si="13"/>
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AZ15" s="10">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BA15" s="10">
         <f t="shared" si="15"/>
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -2229,7 +2235,7 @@
         <v>44</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G16" s="4">
         <v>120</v>
@@ -2340,7 +2346,7 @@
       <c r="B17" s="12"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>44</v>
@@ -2457,13 +2463,13 @@
         <v>55</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="G18" s="4">
         <v>80</v>
@@ -2552,31 +2558,33 @@
         <v>80</v>
       </c>
       <c r="AW18" s="9"/>
-      <c r="AX18" s="7"/>
+      <c r="AX18" s="7">
+        <v>30</v>
+      </c>
       <c r="AY18" s="7">
         <f t="shared" si="13"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AZ18" s="10">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BA18" s="10">
         <f t="shared" si="15"/>
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G19" s="4">
         <v>80</v>
@@ -2687,13 +2695,13 @@
       <c r="B20" s="12"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G20" s="4">
         <v>80</v>
@@ -2776,60 +2784,66 @@
         <v>80</v>
       </c>
       <c r="AT20" s="9"/>
-      <c r="AU20" s="7"/>
+      <c r="AU20" s="7">
+        <v>10</v>
+      </c>
       <c r="AV20" s="7">
         <f t="shared" si="12"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AW20" s="9"/>
       <c r="AX20" s="7"/>
       <c r="AY20" s="7">
         <f t="shared" si="13"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AZ20" s="10">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BA20" s="10">
         <f t="shared" si="15"/>
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="G21" s="4">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7">
         <f t="shared" si="16"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J21" s="9"/>
-      <c r="K21" s="7"/>
+      <c r="K21" s="7">
+        <v>15</v>
+      </c>
       <c r="L21" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P21" s="9"/>
-      <c r="Q21" s="7"/>
+      <c r="Q21" s="7">
+        <v>5</v>
+      </c>
       <c r="R21" s="7">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -2902,10 +2916,10 @@
       </c>
       <c r="AZ21" s="10">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BA21" s="10">
-        <f t="shared" si="15"/>
+        <f>G21-AZ21</f>
         <v>80</v>
       </c>
     </row>
@@ -2913,239 +2927,237 @@
       <c r="B22" s="12"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G22" s="4">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7">
         <f t="shared" si="16"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="P22" s="9"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="S22" s="9"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="V22" s="9"/>
       <c r="W22" s="7"/>
       <c r="X22" s="7">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="Y22" s="9"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AB22" s="9"/>
       <c r="AC22" s="7"/>
       <c r="AD22" s="7">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AE22" s="9"/>
       <c r="AF22" s="7"/>
       <c r="AG22" s="7">
         <f t="shared" si="7"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AH22" s="9"/>
       <c r="AI22" s="7"/>
       <c r="AJ22" s="7">
         <f t="shared" si="8"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AK22" s="9"/>
       <c r="AL22" s="7"/>
       <c r="AM22" s="7">
         <f t="shared" si="9"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AN22" s="9"/>
       <c r="AO22" s="7"/>
       <c r="AP22" s="7">
         <f t="shared" si="10"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AQ22" s="9"/>
       <c r="AR22" s="7"/>
       <c r="AS22" s="7">
         <f t="shared" si="11"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AT22" s="9"/>
-      <c r="AU22" s="7">
-        <v>10</v>
-      </c>
+      <c r="AU22" s="7"/>
       <c r="AV22" s="7">
         <f t="shared" si="12"/>
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AW22" s="9"/>
       <c r="AX22" s="7"/>
       <c r="AY22" s="7">
         <f t="shared" si="13"/>
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AZ22" s="10">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BA22" s="10">
-        <f t="shared" si="15"/>
-        <v>70</v>
+        <f>G22-AZ22</f>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="2:53" ht="45" x14ac:dyDescent="0.25">
-      <c r="B23" s="12"/>
-      <c r="C23" s="4"/>
+      <c r="B23" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="D23" s="4" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="G23" s="4">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7">
         <f t="shared" si="16"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="J23" s="9"/>
-      <c r="K23" s="7">
-        <v>15</v>
-      </c>
+      <c r="K23" s="7"/>
       <c r="L23" s="7">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="P23" s="9"/>
-      <c r="Q23" s="7">
-        <v>5</v>
-      </c>
+      <c r="Q23" s="7"/>
       <c r="R23" s="7">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="S23" s="9"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="V23" s="9"/>
       <c r="W23" s="7"/>
       <c r="X23" s="7">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="Y23" s="9"/>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AB23" s="9"/>
       <c r="AC23" s="7"/>
       <c r="AD23" s="7">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AE23" s="9"/>
       <c r="AF23" s="7"/>
       <c r="AG23" s="7">
         <f t="shared" si="7"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AH23" s="9"/>
       <c r="AI23" s="7"/>
       <c r="AJ23" s="7">
         <f t="shared" si="8"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AK23" s="9"/>
       <c r="AL23" s="7"/>
       <c r="AM23" s="7">
         <f t="shared" si="9"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AN23" s="9"/>
       <c r="AO23" s="7"/>
       <c r="AP23" s="7">
         <f t="shared" si="10"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AQ23" s="9"/>
       <c r="AR23" s="7"/>
       <c r="AS23" s="7">
         <f t="shared" si="11"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AT23" s="9"/>
       <c r="AU23" s="7"/>
       <c r="AV23" s="7">
         <f t="shared" si="12"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AW23" s="9"/>
       <c r="AX23" s="7"/>
       <c r="AY23" s="7">
         <f t="shared" si="13"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AZ23" s="10">
         <f t="shared" si="14"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="10">
-        <f>G23-AZ23</f>
-        <v>80</v>
+        <f t="shared" ref="BA23:BA37" si="17">G23-AZ23</f>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>44</v>
@@ -3250,25 +3262,21 @@
         <v>0</v>
       </c>
       <c r="BA24" s="10">
-        <f>G24-AZ24</f>
+        <f t="shared" si="17"/>
         <v>120</v>
       </c>
     </row>
     <row r="25" spans="2:53" ht="45" x14ac:dyDescent="0.25">
-      <c r="B25" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="G25" s="4">
         <v>120</v>
@@ -3279,109 +3287,113 @@
         <v>120</v>
       </c>
       <c r="J25" s="9"/>
-      <c r="K25" s="7"/>
+      <c r="K25" s="7">
+        <v>15</v>
+      </c>
       <c r="L25" s="7">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="P25" s="9"/>
-      <c r="Q25" s="7"/>
+      <c r="Q25" s="7">
+        <v>5</v>
+      </c>
       <c r="R25" s="7">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="S25" s="9"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="V25" s="9"/>
       <c r="W25" s="7"/>
       <c r="X25" s="7">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="Y25" s="9"/>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AB25" s="9"/>
       <c r="AC25" s="7"/>
       <c r="AD25" s="7">
         <f t="shared" si="6"/>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AE25" s="9"/>
       <c r="AF25" s="7"/>
       <c r="AG25" s="7">
         <f t="shared" si="7"/>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AH25" s="9"/>
       <c r="AI25" s="7"/>
       <c r="AJ25" s="7">
         <f t="shared" si="8"/>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AK25" s="9"/>
       <c r="AL25" s="7"/>
       <c r="AM25" s="7">
         <f t="shared" si="9"/>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN25" s="9"/>
       <c r="AO25" s="7"/>
       <c r="AP25" s="7">
         <f t="shared" si="10"/>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AQ25" s="9"/>
       <c r="AR25" s="7"/>
       <c r="AS25" s="7">
         <f t="shared" si="11"/>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AT25" s="9"/>
       <c r="AU25" s="7"/>
       <c r="AV25" s="7">
         <f t="shared" si="12"/>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AW25" s="9"/>
       <c r="AX25" s="7"/>
       <c r="AY25" s="7">
         <f t="shared" si="13"/>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AZ25" s="10">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BA25" s="10">
-        <f t="shared" ref="BA25:BA39" si="17">G25-AZ25</f>
-        <v>120</v>
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" s="12"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G26" s="4">
         <v>120</v>
@@ -3464,37 +3476,39 @@
         <v>120</v>
       </c>
       <c r="AT26" s="9"/>
-      <c r="AU26" s="7"/>
+      <c r="AU26" s="7">
+        <v>10</v>
+      </c>
       <c r="AV26" s="7">
         <f t="shared" si="12"/>
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AW26" s="9"/>
       <c r="AX26" s="7"/>
       <c r="AY26" s="7">
         <f t="shared" si="13"/>
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AZ26" s="10">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BA26" s="10">
         <f t="shared" si="17"/>
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="G27" s="4">
         <v>120</v>
@@ -3505,222 +3519,220 @@
         <v>120</v>
       </c>
       <c r="J27" s="9"/>
-      <c r="K27" s="7">
-        <v>15</v>
-      </c>
+      <c r="K27" s="7"/>
       <c r="L27" s="7">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="P27" s="9"/>
-      <c r="Q27" s="7">
-        <v>5</v>
-      </c>
+      <c r="Q27" s="7"/>
       <c r="R27" s="7">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="S27" s="9"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="V27" s="9"/>
       <c r="W27" s="7"/>
       <c r="X27" s="7">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Y27" s="9"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="7">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AB27" s="9"/>
       <c r="AC27" s="7"/>
       <c r="AD27" s="7">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AE27" s="9"/>
       <c r="AF27" s="7"/>
       <c r="AG27" s="7">
         <f t="shared" si="7"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AH27" s="9"/>
       <c r="AI27" s="7"/>
       <c r="AJ27" s="7">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AK27" s="9"/>
       <c r="AL27" s="7"/>
       <c r="AM27" s="7">
         <f t="shared" si="9"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AN27" s="9"/>
       <c r="AO27" s="7"/>
       <c r="AP27" s="7">
         <f t="shared" si="10"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AQ27" s="9"/>
       <c r="AR27" s="7"/>
       <c r="AS27" s="7">
         <f t="shared" si="11"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AT27" s="9"/>
       <c r="AU27" s="7"/>
       <c r="AV27" s="7">
         <f t="shared" si="12"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AW27" s="9"/>
       <c r="AX27" s="7"/>
       <c r="AY27" s="7">
         <f t="shared" si="13"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AZ27" s="10">
         <f t="shared" si="14"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BA27" s="10">
         <f t="shared" si="17"/>
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="2:53" ht="45" x14ac:dyDescent="0.25">
-      <c r="B28" s="12"/>
-      <c r="C28" s="4"/>
+      <c r="B28" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="D28" s="4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G28" s="4">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7">
         <f t="shared" si="16"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="J28" s="9"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="P28" s="9"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="S28" s="9"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="V28" s="9"/>
       <c r="W28" s="7"/>
       <c r="X28" s="7">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="Y28" s="9"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AB28" s="9"/>
       <c r="AC28" s="7"/>
       <c r="AD28" s="7">
         <f t="shared" si="6"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AE28" s="9"/>
       <c r="AF28" s="7"/>
       <c r="AG28" s="7">
         <f t="shared" si="7"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AH28" s="9"/>
       <c r="AI28" s="7"/>
       <c r="AJ28" s="7">
         <f t="shared" si="8"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AK28" s="9"/>
       <c r="AL28" s="7"/>
       <c r="AM28" s="7">
         <f t="shared" si="9"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AN28" s="9"/>
       <c r="AO28" s="7"/>
       <c r="AP28" s="7">
         <f t="shared" si="10"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AQ28" s="9"/>
       <c r="AR28" s="7"/>
       <c r="AS28" s="7">
         <f t="shared" si="11"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AT28" s="9"/>
-      <c r="AU28" s="7">
-        <v>10</v>
-      </c>
+      <c r="AU28" s="7"/>
       <c r="AV28" s="7">
         <f t="shared" si="12"/>
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="AW28" s="9"/>
       <c r="AX28" s="7"/>
       <c r="AY28" s="7">
         <f t="shared" si="13"/>
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="AZ28" s="10">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BA28" s="10">
         <f t="shared" si="17"/>
-        <v>110</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>44</v>
@@ -3729,96 +3741,96 @@
         <v>45</v>
       </c>
       <c r="G29" s="4">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7">
         <f t="shared" si="16"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="P29" s="9"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="S29" s="9"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="V29" s="9"/>
       <c r="W29" s="7"/>
       <c r="X29" s="7">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="Y29" s="9"/>
       <c r="Z29" s="7"/>
       <c r="AA29" s="7">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AB29" s="9"/>
       <c r="AC29" s="7"/>
       <c r="AD29" s="7">
         <f t="shared" si="6"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AE29" s="9"/>
       <c r="AF29" s="7"/>
       <c r="AG29" s="7">
         <f t="shared" si="7"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AH29" s="9"/>
       <c r="AI29" s="7"/>
       <c r="AJ29" s="7">
         <f t="shared" si="8"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AK29" s="9"/>
       <c r="AL29" s="7"/>
       <c r="AM29" s="7">
         <f t="shared" si="9"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AN29" s="9"/>
       <c r="AO29" s="7"/>
       <c r="AP29" s="7">
         <f t="shared" si="10"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AQ29" s="9"/>
       <c r="AR29" s="7"/>
       <c r="AS29" s="7">
         <f t="shared" si="11"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AT29" s="9"/>
       <c r="AU29" s="7"/>
       <c r="AV29" s="7">
         <f t="shared" si="12"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AW29" s="9"/>
       <c r="AX29" s="7"/>
       <c r="AY29" s="7">
         <f t="shared" si="13"/>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AZ29" s="10">
         <f t="shared" si="14"/>
@@ -3826,131 +3838,131 @@
       </c>
       <c r="BA29" s="10">
         <f t="shared" si="17"/>
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="2:53" ht="45" x14ac:dyDescent="0.25">
-      <c r="B30" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="G30" s="4">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7">
         <f t="shared" si="16"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="J30" s="9"/>
-      <c r="K30" s="7"/>
+      <c r="K30" s="7">
+        <v>10</v>
+      </c>
       <c r="L30" s="7">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="P30" s="9"/>
-      <c r="Q30" s="7"/>
+      <c r="Q30" s="7">
+        <v>5</v>
+      </c>
       <c r="R30" s="7">
         <f t="shared" si="2"/>
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="S30" s="9"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7">
         <f t="shared" si="3"/>
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="V30" s="9"/>
       <c r="W30" s="7"/>
       <c r="X30" s="7">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="Y30" s="9"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="AB30" s="9"/>
       <c r="AC30" s="7"/>
       <c r="AD30" s="7">
         <f t="shared" si="6"/>
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="AE30" s="9"/>
       <c r="AF30" s="7"/>
       <c r="AG30" s="7">
         <f t="shared" si="7"/>
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="AH30" s="9"/>
       <c r="AI30" s="7"/>
       <c r="AJ30" s="7">
         <f t="shared" si="8"/>
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="AK30" s="9"/>
       <c r="AL30" s="7"/>
       <c r="AM30" s="7">
         <f t="shared" si="9"/>
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="AN30" s="9"/>
       <c r="AO30" s="7"/>
       <c r="AP30" s="7">
         <f t="shared" si="10"/>
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="AQ30" s="9"/>
       <c r="AR30" s="7"/>
       <c r="AS30" s="7">
         <f t="shared" si="11"/>
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="AT30" s="9"/>
       <c r="AU30" s="7"/>
       <c r="AV30" s="7">
         <f t="shared" si="12"/>
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="AW30" s="9"/>
       <c r="AX30" s="7"/>
       <c r="AY30" s="7">
         <f t="shared" si="13"/>
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="AZ30" s="10">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BA30" s="10">
         <f t="shared" si="17"/>
-        <v>180</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>44</v>
@@ -3959,96 +3971,96 @@
         <v>45</v>
       </c>
       <c r="G31" s="4">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7">
         <f t="shared" si="16"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="P31" s="9"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7">
         <f t="shared" si="2"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="S31" s="9"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7">
         <f t="shared" si="3"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="V31" s="9"/>
       <c r="W31" s="7"/>
       <c r="X31" s="7">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="Y31" s="9"/>
       <c r="Z31" s="7"/>
       <c r="AA31" s="7">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AB31" s="9"/>
       <c r="AC31" s="7"/>
       <c r="AD31" s="7">
         <f t="shared" si="6"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AE31" s="9"/>
       <c r="AF31" s="7"/>
       <c r="AG31" s="7">
         <f t="shared" si="7"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AH31" s="9"/>
       <c r="AI31" s="7"/>
       <c r="AJ31" s="7">
         <f t="shared" si="8"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AK31" s="9"/>
       <c r="AL31" s="7"/>
       <c r="AM31" s="7">
         <f t="shared" si="9"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AN31" s="9"/>
       <c r="AO31" s="7"/>
       <c r="AP31" s="7">
         <f t="shared" si="10"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AQ31" s="9"/>
       <c r="AR31" s="7"/>
       <c r="AS31" s="7">
         <f t="shared" si="11"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AT31" s="9"/>
       <c r="AU31" s="7"/>
       <c r="AV31" s="7">
         <f t="shared" si="12"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AW31" s="9"/>
       <c r="AX31" s="7"/>
       <c r="AY31" s="7">
         <f t="shared" si="13"/>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AZ31" s="10">
         <f t="shared" si="14"/>
@@ -4056,254 +4068,256 @@
       </c>
       <c r="BA31" s="10">
         <f t="shared" si="17"/>
-        <v>180</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="2:53" ht="45" x14ac:dyDescent="0.25">
-      <c r="B32" s="12"/>
-      <c r="C32" s="4"/>
+      <c r="B32" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="D32" s="4" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G32" s="4">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7">
         <f t="shared" si="16"/>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="J32" s="9"/>
-      <c r="K32" s="7">
-        <v>10</v>
-      </c>
+      <c r="K32" s="7"/>
       <c r="L32" s="7">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="M32" s="9"/>
-      <c r="N32" s="7"/>
+      <c r="N32" s="7">
+        <v>10</v>
+      </c>
       <c r="O32" s="7">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="P32" s="9"/>
-      <c r="Q32" s="7">
-        <v>5</v>
-      </c>
+      <c r="Q32" s="7"/>
       <c r="R32" s="7">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="S32" s="9"/>
       <c r="T32" s="7"/>
       <c r="U32" s="7">
         <f t="shared" si="3"/>
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="V32" s="9"/>
       <c r="W32" s="7"/>
       <c r="X32" s="7">
         <f t="shared" si="4"/>
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="Y32" s="9"/>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7">
         <f t="shared" si="5"/>
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AB32" s="9"/>
       <c r="AC32" s="7"/>
       <c r="AD32" s="7">
         <f t="shared" si="6"/>
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AE32" s="9"/>
       <c r="AF32" s="7"/>
       <c r="AG32" s="7">
         <f t="shared" si="7"/>
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AH32" s="9"/>
       <c r="AI32" s="7"/>
       <c r="AJ32" s="7">
         <f t="shared" si="8"/>
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AK32" s="9"/>
       <c r="AL32" s="7"/>
       <c r="AM32" s="7">
         <f t="shared" si="9"/>
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AN32" s="9"/>
       <c r="AO32" s="7"/>
       <c r="AP32" s="7">
         <f t="shared" si="10"/>
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AQ32" s="9"/>
       <c r="AR32" s="7"/>
       <c r="AS32" s="7">
         <f t="shared" si="11"/>
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AT32" s="9"/>
       <c r="AU32" s="7"/>
       <c r="AV32" s="7">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AW32" s="9"/>
-      <c r="AX32" s="7"/>
+      <c r="AX32" s="7">
+        <v>10</v>
+      </c>
       <c r="AY32" s="7">
         <f t="shared" si="13"/>
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="AZ32" s="10">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA32" s="10">
         <f t="shared" si="17"/>
-        <v>105</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B33" s="12"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="G33" s="4">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7">
         <f t="shared" si="16"/>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="P33" s="9"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="S33" s="9"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="V33" s="9"/>
       <c r="W33" s="7"/>
       <c r="X33" s="7">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="Y33" s="9"/>
       <c r="Z33" s="7"/>
       <c r="AA33" s="7">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AB33" s="9"/>
       <c r="AC33" s="7"/>
       <c r="AD33" s="7">
         <f t="shared" si="6"/>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AE33" s="9"/>
       <c r="AF33" s="7"/>
       <c r="AG33" s="7">
         <f t="shared" si="7"/>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AH33" s="9"/>
       <c r="AI33" s="7"/>
       <c r="AJ33" s="7">
         <f t="shared" si="8"/>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AK33" s="9"/>
       <c r="AL33" s="7"/>
       <c r="AM33" s="7">
         <f t="shared" si="9"/>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AN33" s="9"/>
       <c r="AO33" s="7"/>
       <c r="AP33" s="7">
         <f t="shared" si="10"/>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AQ33" s="9"/>
       <c r="AR33" s="7"/>
       <c r="AS33" s="7">
         <f t="shared" si="11"/>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AT33" s="9"/>
       <c r="AU33" s="7"/>
       <c r="AV33" s="7">
         <f t="shared" si="12"/>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AW33" s="9"/>
-      <c r="AX33" s="7"/>
+      <c r="AX33" s="7">
+        <v>25</v>
+      </c>
       <c r="AY33" s="7">
         <f t="shared" si="13"/>
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="AZ33" s="10">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BA33" s="10">
         <f t="shared" si="17"/>
-        <v>120</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="2:53" ht="45" x14ac:dyDescent="0.25">
-      <c r="B34" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="4" t="s">
+      <c r="B34" s="12"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G34" s="4">
         <v>90</v>
@@ -4320,105 +4334,109 @@
         <v>90</v>
       </c>
       <c r="M34" s="9"/>
-      <c r="N34" s="7">
-        <v>10</v>
-      </c>
+      <c r="N34" s="7"/>
       <c r="O34" s="7">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="P34" s="9"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="S34" s="9"/>
       <c r="T34" s="7"/>
       <c r="U34" s="7">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="V34" s="9"/>
       <c r="W34" s="7"/>
       <c r="X34" s="7">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Y34" s="9"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AB34" s="9"/>
       <c r="AC34" s="7"/>
       <c r="AD34" s="7">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AE34" s="9"/>
       <c r="AF34" s="7"/>
       <c r="AG34" s="7">
         <f t="shared" si="7"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH34" s="9"/>
       <c r="AI34" s="7"/>
       <c r="AJ34" s="7">
         <f t="shared" si="8"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK34" s="9"/>
       <c r="AL34" s="7"/>
       <c r="AM34" s="7">
         <f t="shared" si="9"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AN34" s="9"/>
       <c r="AO34" s="7"/>
       <c r="AP34" s="7">
         <f t="shared" si="10"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AQ34" s="9"/>
-      <c r="AR34" s="7"/>
+      <c r="AR34" s="7">
+        <v>5</v>
+      </c>
       <c r="AS34" s="7">
         <f t="shared" si="11"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AT34" s="9"/>
-      <c r="AU34" s="7"/>
+      <c r="AU34" s="7">
+        <v>10</v>
+      </c>
       <c r="AV34" s="7">
         <f t="shared" si="12"/>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW34" s="9"/>
-      <c r="AX34" s="7"/>
+      <c r="AX34" s="7">
+        <v>20</v>
+      </c>
       <c r="AY34" s="7">
         <f t="shared" si="13"/>
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AZ34" s="10">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="BA34" s="10">
         <f t="shared" si="17"/>
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B35" s="12"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="G35" s="4">
         <v>90</v>
@@ -4507,54 +4525,60 @@
         <v>90</v>
       </c>
       <c r="AW35" s="9"/>
-      <c r="AX35" s="7"/>
+      <c r="AX35" s="7">
+        <v>10</v>
+      </c>
       <c r="AY35" s="7">
         <f t="shared" si="13"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AZ35" s="10">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BA35" s="10">
         <f t="shared" si="17"/>
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B36" s="12"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="G36" s="4">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7">
         <f t="shared" si="16"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="J36" s="9"/>
-      <c r="K36" s="7"/>
+      <c r="K36" s="7">
+        <v>25</v>
+      </c>
       <c r="L36" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P36" s="9"/>
-      <c r="Q36" s="7"/>
+      <c r="Q36" s="7">
+        <v>5</v>
+      </c>
       <c r="R36" s="7">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -4608,41 +4632,37 @@
         <v>90</v>
       </c>
       <c r="AQ36" s="9"/>
-      <c r="AR36" s="7">
-        <v>5</v>
-      </c>
+      <c r="AR36" s="7"/>
       <c r="AS36" s="7">
         <f t="shared" si="11"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AT36" s="9"/>
-      <c r="AU36" s="7">
-        <v>10</v>
-      </c>
+      <c r="AU36" s="7"/>
       <c r="AV36" s="7">
         <f t="shared" si="12"/>
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AW36" s="9"/>
       <c r="AX36" s="7"/>
       <c r="AY36" s="7">
         <f t="shared" si="13"/>
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AZ36" s="10">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="BA36" s="10">
         <f t="shared" si="17"/>
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>44</v>
@@ -4651,96 +4671,96 @@
         <v>45</v>
       </c>
       <c r="G37" s="4">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7">
         <f t="shared" si="16"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="P37" s="9"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="S37" s="9"/>
       <c r="T37" s="7"/>
       <c r="U37" s="7">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="V37" s="9"/>
       <c r="W37" s="7"/>
       <c r="X37" s="7">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="Y37" s="9"/>
       <c r="Z37" s="7"/>
       <c r="AA37" s="7">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AB37" s="9"/>
       <c r="AC37" s="7"/>
       <c r="AD37" s="7">
         <f t="shared" si="6"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AE37" s="9"/>
       <c r="AF37" s="7"/>
       <c r="AG37" s="7">
         <f t="shared" si="7"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AH37" s="9"/>
       <c r="AI37" s="7"/>
       <c r="AJ37" s="7">
         <f t="shared" si="8"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AK37" s="9"/>
       <c r="AL37" s="7"/>
       <c r="AM37" s="7">
         <f t="shared" si="9"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AN37" s="9"/>
       <c r="AO37" s="7"/>
       <c r="AP37" s="7">
         <f t="shared" si="10"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AQ37" s="9"/>
       <c r="AR37" s="7"/>
       <c r="AS37" s="7">
         <f t="shared" si="11"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AT37" s="9"/>
       <c r="AU37" s="7"/>
       <c r="AV37" s="7">
         <f t="shared" si="12"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AW37" s="9"/>
       <c r="AX37" s="7"/>
       <c r="AY37" s="7">
         <f t="shared" si="13"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AZ37" s="10">
         <f t="shared" si="14"/>
@@ -4748,343 +4768,113 @@
       </c>
       <c r="BA37" s="10">
         <f t="shared" si="17"/>
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="38" spans="2:53" ht="45" x14ac:dyDescent="0.25">
-      <c r="B38" s="12"/>
+    <row r="38" spans="2:53" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G38" s="4">
-        <v>120</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7">
         <f t="shared" si="16"/>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="J38" s="9"/>
-      <c r="K38" s="7">
-        <v>25</v>
-      </c>
+      <c r="K38" s="7"/>
       <c r="L38" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="P38" s="9"/>
-      <c r="Q38" s="7">
-        <v>5</v>
-      </c>
+      <c r="Q38" s="7"/>
       <c r="R38" s="7">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="S38" s="9"/>
       <c r="T38" s="7"/>
       <c r="U38" s="7">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="V38" s="9"/>
       <c r="W38" s="7"/>
       <c r="X38" s="7">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="9"/>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AB38" s="9"/>
       <c r="AC38" s="7"/>
       <c r="AD38" s="7">
         <f t="shared" si="6"/>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AE38" s="9"/>
       <c r="AF38" s="7"/>
       <c r="AG38" s="7">
         <f t="shared" si="7"/>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AH38" s="9"/>
       <c r="AI38" s="7"/>
       <c r="AJ38" s="7">
         <f t="shared" si="8"/>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="9"/>
       <c r="AL38" s="7"/>
       <c r="AM38" s="7">
         <f t="shared" si="9"/>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AN38" s="9"/>
       <c r="AO38" s="7"/>
       <c r="AP38" s="7">
         <f t="shared" si="10"/>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AQ38" s="9"/>
       <c r="AR38" s="7"/>
       <c r="AS38" s="7">
         <f t="shared" si="11"/>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AT38" s="9"/>
       <c r="AU38" s="7"/>
       <c r="AV38" s="7">
         <f t="shared" si="12"/>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AW38" s="9"/>
       <c r="AX38" s="7"/>
       <c r="AY38" s="7">
         <f t="shared" si="13"/>
-        <v>90</v>
-      </c>
-      <c r="AZ38" s="10">
-        <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="BA38" s="10">
-        <f t="shared" si="17"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="2:53" ht="45" x14ac:dyDescent="0.25">
-      <c r="B39" s="12"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G39" s="4">
-        <v>120</v>
-      </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7">
-        <f t="shared" si="16"/>
-        <v>120</v>
-      </c>
-      <c r="J39" s="9"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="M39" s="9"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7">
-        <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="S39" s="9"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="V39" s="9"/>
-      <c r="W39" s="7"/>
-      <c r="X39" s="7">
-        <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="7"/>
-      <c r="AA39" s="7">
-        <f t="shared" si="5"/>
-        <v>120</v>
-      </c>
-      <c r="AB39" s="9"/>
-      <c r="AC39" s="7"/>
-      <c r="AD39" s="7">
-        <f t="shared" si="6"/>
-        <v>120</v>
-      </c>
-      <c r="AE39" s="9"/>
-      <c r="AF39" s="7"/>
-      <c r="AG39" s="7">
-        <f t="shared" si="7"/>
-        <v>120</v>
-      </c>
-      <c r="AH39" s="9"/>
-      <c r="AI39" s="7"/>
-      <c r="AJ39" s="7">
-        <f t="shared" si="8"/>
-        <v>120</v>
-      </c>
-      <c r="AK39" s="9"/>
-      <c r="AL39" s="7"/>
-      <c r="AM39" s="7">
-        <f t="shared" si="9"/>
-        <v>120</v>
-      </c>
-      <c r="AN39" s="9"/>
-      <c r="AO39" s="7"/>
-      <c r="AP39" s="7">
-        <f t="shared" si="10"/>
-        <v>120</v>
-      </c>
-      <c r="AQ39" s="9"/>
-      <c r="AR39" s="7"/>
-      <c r="AS39" s="7">
-        <f t="shared" si="11"/>
-        <v>120</v>
-      </c>
-      <c r="AT39" s="9"/>
-      <c r="AU39" s="7"/>
-      <c r="AV39" s="7">
-        <f t="shared" si="12"/>
-        <v>120</v>
-      </c>
-      <c r="AW39" s="9"/>
-      <c r="AX39" s="7"/>
-      <c r="AY39" s="7">
-        <f t="shared" si="13"/>
-        <v>120</v>
-      </c>
-      <c r="AZ39" s="10">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BA39" s="10">
-        <f t="shared" si="17"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="2:53" ht="30" x14ac:dyDescent="0.25">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="9"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="9"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S40" s="9"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V40" s="9"/>
-      <c r="W40" s="7"/>
-      <c r="X40" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y40" s="9"/>
-      <c r="Z40" s="7"/>
-      <c r="AA40" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB40" s="9"/>
-      <c r="AC40" s="7"/>
-      <c r="AD40" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE40" s="9"/>
-      <c r="AF40" s="7"/>
-      <c r="AG40" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH40" s="9"/>
-      <c r="AI40" s="7"/>
-      <c r="AJ40" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK40" s="9"/>
-      <c r="AL40" s="7"/>
-      <c r="AM40" s="7">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN40" s="9"/>
-      <c r="AO40" s="7"/>
-      <c r="AP40" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AQ40" s="9"/>
-      <c r="AR40" s="7"/>
-      <c r="AS40" s="7">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AT40" s="9"/>
-      <c r="AU40" s="7"/>
-      <c r="AV40" s="7">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AW40" s="9"/>
-      <c r="AX40" s="7"/>
-      <c r="AY40" s="7">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AZ40" s="10" t="e">
-        <f>H40+K40+N40+Q40+T40+W40+Z40+AC40+AF40+AI40+AL40+AO40+AR40+AU40+AX40+#REF!+#REF!+#REF!+#REF!+#REF!</f>
+      <c r="AZ38" s="10" t="e">
+        <f>H38+K38+N38+Q38+T38+W38+Z38+AC38+AF38+AI38+AL38+AO38+AR38+AU38+AX38+#REF!+#REF!+#REF!+#REF!+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="BA40" s="10" t="e">
-        <f>G40-AZ40</f>
+      <c r="BA38" s="10" t="e">
+        <f>G38-AZ38</f>
         <v>#REF!</v>
       </c>
     </row>

--- a/Juan/Reviciones/Plantilla_Lista_de_Tareas_de_la_revisión_2.xlsx
+++ b/Juan/Reviciones/Plantilla_Lista_de_Tareas_de_la_revisión_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juuan\Desktop\6to semstre\Des. Software\Proyecto\EmpenioFacil\Juan\Reviciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC56E15-0392-4BF0-9B68-766213954908}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0542E5F1-28CD-43CB-8864-5A2E41644C65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="589" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -474,6 +474,1470 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Métricas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" baseline="0"/>
+              <a:t> de timpo - Revision 2 - Juan Carlos D</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Minutos estimados</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Casos de Uso'!$D$6:$D$37</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>Capturar datos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Validar datos del usuario</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Generar pantalla principal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Generar pantalla iniciar sesion</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Diagrama de Secuencia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pruebas unitarias</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Capturar datos del usuario</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Generar Pantalla de Registrar usuario</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Validar datos del usuario</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Guardar usuario</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Diagrama de Secuencia</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Pruebas unitarias</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Buscar usuario</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Generar pantalla de buscar usuario</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Validar datos y criterios</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Diagrama de Secuencia</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Pruebas unitarias</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Cambiar datos del usuario</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Guardar cambios</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Diagrama de Secuencia</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Validar datos</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Pruebas unitarias</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Eliminar usuario</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Guardar cambios</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Diagrama de Secuencia</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Pruebas unitarias</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Generar pantalla de agregar categoria</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Capturar nombre de categoria</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Validar nombre de categoria</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Guardar categoria</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Diagrama de Secuencia</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Pruebas unitarias</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Casos de Uso'!$G$6:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA58-413D-B667-50F0FC3811C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Casos de Uso'!$D$6:$D$37</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>Capturar datos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Validar datos del usuario</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Generar pantalla principal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Generar pantalla iniciar sesion</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Diagrama de Secuencia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pruebas unitarias</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Capturar datos del usuario</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Generar Pantalla de Registrar usuario</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Validar datos del usuario</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Guardar usuario</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Diagrama de Secuencia</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Pruebas unitarias</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Buscar usuario</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Generar pantalla de buscar usuario</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Validar datos y criterios</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Diagrama de Secuencia</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Pruebas unitarias</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Cambiar datos del usuario</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Guardar cambios</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Diagrama de Secuencia</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Validar datos</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Pruebas unitarias</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Eliminar usuario</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Guardar cambios</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Diagrama de Secuencia</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Pruebas unitarias</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Generar pantalla de agregar categoria</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Capturar nombre de categoria</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Validar nombre de categoria</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Guardar categoria</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Diagrama de Secuencia</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Pruebas unitarias</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Casos de Uso'!$AZ$6:$AZ$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EA58-413D-B667-50F0FC3811C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="590833640"/>
+        <c:axId val="590833968"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="590833640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t>Caso de uso</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590833968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="590833968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Minutos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590833640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>338940</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>274862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>299356</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>462643</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A70DFF3-7211-4166-AAB0-998DB05441A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -765,11 +2229,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="AG36" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AK35" sqref="AK35"/>
+      <selection pane="bottomRight" activeCell="AL12" sqref="AL12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4904,6 +6368,7 @@
     <brk id="36" max="18" man="1"/>
     <brk id="53" max="18" man="1"/>
   </colBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Juan/Reviciones/Plantilla_Lista_de_Tareas_de_la_revisión_2.xlsx
+++ b/Juan/Reviciones/Plantilla_Lista_de_Tareas_de_la_revisión_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juuan\Desktop\6to semstre\Des. Software\Proyecto\EmpenioFacil\Juan\Reviciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0542E5F1-28CD-43CB-8864-5A2E41644C65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347CA41B-7E10-48E7-8DC7-C0C49BF4B8FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="589" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -831,6 +831,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Minutos invertidos</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -1099,7 +1102,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-MX" baseline="0"/>
-                  <a:t>Caso de uso</a:t>
+                  <a:t>Casos de uso</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6344,11 +6347,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -6360,6 +6358,11 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
